--- a/matter.xlsx
+++ b/matter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamGathright\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8995EFF0-C823-426E-88B8-EF43B065C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2DEA26D4-7B13-4AF4-AB32-EDBFC1F92A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6660" windowWidth="29040" windowHeight="15720" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
+    <workbookView xWindow="38280" yWindow="6660" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
   </bookViews>
   <sheets>
     <sheet name="help" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="838">
   <si>
     <t>command_id</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Power Limit (%)</t>
-  </si>
-  <si>
     <t>FeedInGrid.FeedInGridStatus</t>
   </si>
   <si>
@@ -1197,9 +1194,6 @@
     <t>Volt</t>
   </si>
   <si>
-    <t>Voltage (Vdc)</t>
-  </si>
-  <si>
     <t>BatteryBase.FloatVoltage</t>
   </si>
   <si>
@@ -1263,9 +1257,6 @@
   </si>
   <si>
     <t>ChargeLimitSoc</t>
-  </si>
-  <si>
-    <t>SOC (%)</t>
   </si>
   <si>
     <t>BatteryBase.MaxChaDisChaCurrent</t>
@@ -2047,13 +2038,7 @@
     <t>ACChgStartSOC</t>
   </si>
   <si>
-    <t>Start SOC (%)</t>
-  </si>
-  <si>
     <t>StopSOC</t>
-  </si>
-  <si>
-    <t>Stop SOC (%)</t>
   </si>
   <si>
     <t>ACCharge.ACChargeType</t>
@@ -4184,9 +4169,6 @@
     <t>Display name</t>
   </si>
   <si>
-    <t>Description text</t>
-  </si>
-  <si>
     <t>attribute, service, or custom</t>
   </si>
   <si>
@@ -4211,9 +4193,6 @@
     <t>Data type: Number (numeric), Enum (discrete), String (text)</t>
   </si>
   <si>
-    <t>Short tooltip shown in the UI. Brief explanation of what this entry represents.</t>
-  </si>
-  <si>
     <t>Extended description for help modals or detailed views.</t>
   </si>
   <si>
@@ -4299,6 +4278,33 @@
   </si>
   <si>
     <t>UI 显示的友好标签。格式：逗号分隔说明（例如 Off-Grid：无电网供电，Grid-Tied：连接电网运行）。</t>
+  </si>
+  <si>
+    <t>Tooltip text</t>
+  </si>
+  <si>
+    <t>Short description of the value being adjusted</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Vdc</t>
+  </si>
+  <si>
+    <t>Start SOC</t>
+  </si>
+  <si>
+    <t>Stop SOC</t>
+  </si>
+  <si>
+    <t>Vac</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
 </sst>
 </file>
@@ -5177,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2718FA1-FB06-434A-AE03-317509CD1F45}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,13 +5197,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5205,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5216,10 +5222,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,10 +5233,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,10 +5244,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5249,10 +5255,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5260,10 +5266,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,10 +5277,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5282,10 +5288,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5293,10 +5299,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5304,10 +5310,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5315,21 +5321,21 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5337,10 +5343,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5348,10 +5354,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5359,10 +5365,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5370,10 +5376,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5381,10 +5387,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5392,10 +5398,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5403,10 +5409,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5414,10 +5420,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -5429,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E6F9F-94E9-4923-9FA9-34B4E6FF732D}">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5968,10 +5974,13 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="s">
         <v>39</v>
+      </c>
+      <c r="T15" t="s">
+        <v>831</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -5982,13 +5991,13 @@
     </row>
     <row r="16" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -6000,28 +6009,28 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="O16" t="s">
         <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q16" t="s">
         <v>50</v>
@@ -6030,18 +6039,18 @@
         <v>64</v>
       </c>
       <c r="Z16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -6053,19 +6062,22 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O17" t="s">
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
         <v>39</v>
+      </c>
+      <c r="T17" t="s">
+        <v>832</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -6076,13 +6088,13 @@
     </row>
     <row r="18" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -6094,16 +6106,16 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
         <v>49</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q18" t="s">
         <v>50</v>
@@ -6112,18 +6124,18 @@
         <v>64</v>
       </c>
       <c r="Z18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -6135,19 +6147,22 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" t="s">
+      <c r="O19" t="s">
         <v>127</v>
       </c>
-      <c r="O19" t="s">
-        <v>128</v>
-      </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q19" t="s">
         <v>39</v>
+      </c>
+      <c r="T19" t="s">
+        <v>831</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -6158,13 +6173,13 @@
     </row>
     <row r="20" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -6176,28 +6191,28 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" t="s">
         <v>137</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" t="s">
-        <v>139</v>
       </c>
       <c r="Q20" t="s">
         <v>39</v>
@@ -6211,13 +6226,13 @@
     </row>
     <row r="21" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
         <v>140</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -6229,36 +6244,36 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" t="s">
         <v>143</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>144</v>
-      </c>
-      <c r="P21" t="s">
-        <v>145</v>
       </c>
       <c r="Q21" t="s">
         <v>50</v>
       </c>
       <c r="Y21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z21" t="s">
         <v>146</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
         <v>148</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -6270,77 +6285,77 @@
         <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" t="s">
         <v>151</v>
       </c>
-      <c r="O22" t="s">
-        <v>152</v>
-      </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q22" t="s">
         <v>50</v>
       </c>
       <c r="Y22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
         <v>154</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
         <v>157</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" t="s">
-        <v>158</v>
-      </c>
       <c r="O23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q23" t="s">
         <v>50</v>
       </c>
       <c r="Y23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
         <v>160</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -6352,36 +6367,36 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q24" t="s">
         <v>50</v>
       </c>
       <c r="Y24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -6393,16 +6408,16 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s">
         <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
         <v>50</v>
@@ -6411,18 +6426,18 @@
         <v>64</v>
       </c>
       <c r="Z25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -6434,16 +6449,16 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" t="s">
         <v>174</v>
       </c>
-      <c r="O26" t="s">
-        <v>175</v>
-      </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="s">
         <v>39</v>
@@ -6451,13 +6466,13 @@
     </row>
     <row r="27" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" t="s">
         <v>176</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -6469,36 +6484,36 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q27" t="s">
         <v>50</v>
       </c>
       <c r="Y27" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z27" t="s">
         <v>180</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -6510,36 +6525,36 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q28" t="s">
         <v>50</v>
       </c>
       <c r="Y28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
         <v>186</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -6551,48 +6566,48 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" t="s">
         <v>189</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" t="s">
         <v>194</v>
       </c>
-      <c r="O29" t="s">
-        <v>195</v>
-      </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q29" t="s">
         <v>50</v>
       </c>
       <c r="Y29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
         <v>197</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -6604,36 +6619,36 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q30" t="s">
         <v>50</v>
       </c>
       <c r="Y30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
         <v>202</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -6645,48 +6660,48 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" t="s">
         <v>205</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="O31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q31" t="s">
         <v>50</v>
       </c>
       <c r="Y31" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z31" t="s">
         <v>211</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
         <v>213</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -6698,36 +6713,36 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H32" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" t="s">
         <v>216</v>
       </c>
-      <c r="O32" t="s">
-        <v>217</v>
-      </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q32" t="s">
         <v>50</v>
       </c>
       <c r="Y32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" t="s">
         <v>219</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -6739,30 +6754,33 @@
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H33" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" t="s">
         <v>222</v>
       </c>
-      <c r="O33" t="s">
-        <v>223</v>
-      </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>689</v>
       </c>
       <c r="Q33" t="s">
         <v>39</v>
+      </c>
+      <c r="T33" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -6774,30 +6792,33 @@
         <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>689</v>
       </c>
       <c r="Q34" t="s">
         <v>39</v>
+      </c>
+      <c r="T34" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
@@ -6809,30 +6830,33 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>689</v>
       </c>
       <c r="Q35" t="s">
         <v>39</v>
+      </c>
+      <c r="T35" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -6844,53 +6868,53 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" t="s">
+        <v>234</v>
+      </c>
+      <c r="O36" t="s">
+        <v>235</v>
+      </c>
+      <c r="P36" t="s">
         <v>236</v>
-      </c>
-      <c r="O36" t="s">
-        <v>237</v>
-      </c>
-      <c r="P36" t="s">
-        <v>238</v>
       </c>
       <c r="Q36" t="s">
         <v>50</v>
       </c>
       <c r="Y36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q37" t="s">
         <v>50</v>
       </c>
       <c r="Y37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -6902,19 +6926,22 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="Q38" t="s">
         <v>39</v>
+      </c>
+      <c r="T38" t="s">
+        <v>831</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -6925,13 +6952,13 @@
     </row>
     <row r="39" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -6943,53 +6970,53 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q39" t="s">
         <v>50</v>
       </c>
       <c r="Y39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q40" t="s">
         <v>50</v>
       </c>
       <c r="Y40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -7001,22 +7028,25 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="Q41" t="s">
         <v>39</v>
       </c>
       <c r="R41" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="T41" t="s">
+        <v>831</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -7027,13 +7057,13 @@
     </row>
     <row r="42" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -7045,22 +7075,25 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H42" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="Q42" t="s">
         <v>39</v>
       </c>
       <c r="R42" t="s">
-        <v>265</v>
+        <v>262</v>
+      </c>
+      <c r="T42" t="s">
+        <v>831</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -7071,13 +7104,13 @@
     </row>
     <row r="43" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -7089,28 +7122,28 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" t="s">
+        <v>267</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H43" t="s">
+      <c r="M43" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="O43" t="s">
         <v>49</v>
       </c>
       <c r="P43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q43" t="s">
         <v>50</v>
@@ -7119,18 +7152,18 @@
         <v>64</v>
       </c>
       <c r="Z43" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -7142,19 +7175,22 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="Q44" t="s">
         <v>39</v>
+      </c>
+      <c r="T44" t="s">
+        <v>831</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -7165,13 +7201,13 @@
     </row>
     <row r="45" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
         <v>29</v>
@@ -7183,28 +7219,28 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H45" t="s">
+        <v>280</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H45" t="s">
-        <v>283</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="O45" t="s">
         <v>49</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q45" t="s">
         <v>50</v>
@@ -7213,18 +7249,18 @@
         <v>64</v>
       </c>
       <c r="Z45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
         <v>29</v>
@@ -7236,34 +7272,37 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" t="s">
+        <v>291</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H46" t="s">
+      <c r="M46" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="O46" t="s">
         <v>99</v>
       </c>
       <c r="P46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q46" t="s">
         <v>39</v>
       </c>
       <c r="R46" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="T46" t="s">
+        <v>832</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -7274,13 +7313,13 @@
     </row>
     <row r="47" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
         <v>29</v>
@@ -7292,16 +7331,16 @@
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O47" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q47" t="s">
         <v>39</v>
@@ -7315,10 +7354,10 @@
     </row>
     <row r="48" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q48" t="s">
         <v>39</v>
@@ -7332,10 +7371,10 @@
     </row>
     <row r="49" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P49" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q49" t="s">
         <v>39</v>
@@ -7349,10 +7388,10 @@
     </row>
     <row r="50" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q50" t="s">
         <v>39</v>
@@ -7366,13 +7405,13 @@
     </row>
     <row r="51" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -7384,16 +7423,16 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P51" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q51" t="s">
         <v>39</v>
@@ -7407,10 +7446,10 @@
     </row>
     <row r="52" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q52" t="s">
         <v>39</v>
@@ -7424,10 +7463,10 @@
     </row>
     <row r="53" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O53" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P53" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q53" t="s">
         <v>39</v>
@@ -7441,10 +7480,10 @@
     </row>
     <row r="54" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P54" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q54" t="s">
         <v>39</v>
@@ -7458,13 +7497,13 @@
     </row>
     <row r="55" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -7476,16 +7515,16 @@
         <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O55" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P55" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q55" t="s">
         <v>39</v>
@@ -7499,10 +7538,10 @@
     </row>
     <row r="56" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q56" t="s">
         <v>39</v>
@@ -7516,10 +7555,10 @@
     </row>
     <row r="57" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q57" t="s">
         <v>39</v>
@@ -7533,10 +7572,10 @@
     </row>
     <row r="58" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O58" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P58" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q58" t="s">
         <v>39</v>
@@ -7550,13 +7589,13 @@
     </row>
     <row r="59" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -7568,34 +7607,34 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
+        <v>318</v>
+      </c>
+      <c r="H59" t="s">
+        <v>319</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H59" t="s">
+      <c r="M59" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="O59" t="s">
         <v>99</v>
       </c>
       <c r="P59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q59" t="s">
         <v>39</v>
       </c>
       <c r="R59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -7606,13 +7645,13 @@
     </row>
     <row r="60" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -7624,19 +7663,22 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="Q60" t="s">
         <v>39</v>
+      </c>
+      <c r="T60" t="s">
+        <v>831</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -7647,13 +7689,13 @@
     </row>
     <row r="61" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
@@ -7665,16 +7707,16 @@
         <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H61" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O61" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P61" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q61" t="s">
         <v>39</v>
@@ -7688,10 +7730,10 @@
     </row>
     <row r="62" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q62" t="s">
         <v>39</v>
@@ -7705,10 +7747,10 @@
     </row>
     <row r="63" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P63" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q63" t="s">
         <v>39</v>
@@ -7722,10 +7764,10 @@
     </row>
     <row r="64" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O64" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P64" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q64" t="s">
         <v>39</v>
@@ -7739,13 +7781,13 @@
     </row>
     <row r="65" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -7757,16 +7799,16 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H65" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P65" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q65" t="s">
         <v>39</v>
@@ -7780,10 +7822,10 @@
     </row>
     <row r="66" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O66" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q66" t="s">
         <v>39</v>
@@ -7797,10 +7839,10 @@
     </row>
     <row r="67" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O67" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P67" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q67" t="s">
         <v>39</v>
@@ -7814,10 +7856,10 @@
     </row>
     <row r="68" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O68" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q68" t="s">
         <v>39</v>
@@ -7831,13 +7873,13 @@
     </row>
     <row r="69" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -7849,16 +7891,16 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H69" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O69" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P69" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q69" t="s">
         <v>39</v>
@@ -7872,10 +7914,10 @@
     </row>
     <row r="70" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q70" t="s">
         <v>39</v>
@@ -7889,10 +7931,10 @@
     </row>
     <row r="71" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q71" t="s">
         <v>39</v>
@@ -7906,10 +7948,10 @@
     </row>
     <row r="72" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O72" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P72" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q72" t="s">
         <v>39</v>
@@ -7923,13 +7965,13 @@
     </row>
     <row r="73" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -7941,28 +7983,28 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H73" t="s">
+        <v>341</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="O73" t="s">
         <v>49</v>
       </c>
       <c r="P73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q73" t="s">
         <v>50</v>
@@ -7971,18 +8013,18 @@
         <v>64</v>
       </c>
       <c r="Z73" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -7994,16 +8036,16 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H74" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O74" t="s">
         <v>99</v>
       </c>
       <c r="P74" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q74" t="s">
         <v>39</v>
@@ -8017,13 +8059,13 @@
     </row>
     <row r="75" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -8035,16 +8077,16 @@
         <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H75" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>360</v>
+        <v>834</v>
       </c>
       <c r="Q75" t="s">
         <v>39</v>
@@ -8056,18 +8098,21 @@
         <v>100</v>
       </c>
       <c r="W75" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O76" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P76" t="s">
-        <v>362</v>
+        <v>835</v>
       </c>
       <c r="Q76" t="s">
         <v>39</v>
+      </c>
+      <c r="T76" t="s">
+        <v>831</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -8076,18 +8121,18 @@
         <v>100</v>
       </c>
       <c r="X76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
@@ -8099,36 +8144,39 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H77" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q77" t="s">
         <v>50</v>
       </c>
+      <c r="T77" t="s">
+        <v>831</v>
+      </c>
       <c r="Y77" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Z77" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -8140,16 +8188,16 @@
         <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H78" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O78" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P78" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q78" t="s">
         <v>39</v>
@@ -8163,10 +8211,10 @@
     </row>
     <row r="79" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O79" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P79" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q79" t="s">
         <v>39</v>
@@ -8180,10 +8228,10 @@
     </row>
     <row r="80" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P80" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q80" t="s">
         <v>39</v>
@@ -8197,10 +8245,10 @@
     </row>
     <row r="81" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O81" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P81" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q81" t="s">
         <v>39</v>
@@ -8214,10 +8262,10 @@
     </row>
     <row r="82" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O82" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P82" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q82" t="s">
         <v>39</v>
@@ -8231,10 +8279,10 @@
     </row>
     <row r="83" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O83" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P83" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q83" t="s">
         <v>39</v>
@@ -8248,10 +8296,10 @@
     </row>
     <row r="84" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O84" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P84" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q84" t="s">
         <v>39</v>
@@ -8265,10 +8313,10 @@
     </row>
     <row r="85" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O85" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P85" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q85" t="s">
         <v>39</v>
@@ -8282,10 +8330,10 @@
     </row>
     <row r="86" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O86" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P86" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q86" t="s">
         <v>39</v>
@@ -8299,10 +8347,10 @@
     </row>
     <row r="87" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O87" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P87" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q87" t="s">
         <v>39</v>
@@ -8316,10 +8364,10 @@
     </row>
     <row r="88" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P88" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q88" t="s">
         <v>39</v>
@@ -8333,10 +8381,10 @@
     </row>
     <row r="89" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O89" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P89" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q89" t="s">
         <v>39</v>
@@ -8350,13 +8398,13 @@
     </row>
     <row r="90" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
@@ -8368,48 +8416,48 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
+        <v>396</v>
+      </c>
+      <c r="H90" t="s">
+        <v>397</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N90" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H90" t="s">
+      <c r="O90" t="s">
         <v>402</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="O90" t="s">
-        <v>407</v>
-      </c>
       <c r="P90" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q90" t="s">
         <v>50</v>
       </c>
       <c r="Y90" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Z90" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B91" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
@@ -8421,36 +8469,36 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H91" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q91" t="s">
         <v>50</v>
       </c>
       <c r="Y91" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Z91" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B92" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D92" t="s">
         <v>29</v>
@@ -8462,36 +8510,36 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H92" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O92" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P92" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q92" t="s">
         <v>50</v>
       </c>
       <c r="Y92" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Z92" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
         <v>29</v>
@@ -8503,28 +8551,28 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
+        <v>423</v>
+      </c>
+      <c r="H93" t="s">
+        <v>424</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="N93" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H93" t="s">
+      <c r="O93" t="s">
         <v>429</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="P93" t="s">
         <v>430</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="O93" t="s">
-        <v>434</v>
-      </c>
-      <c r="P93" t="s">
-        <v>435</v>
       </c>
       <c r="Q93" t="s">
         <v>39</v>
@@ -8532,10 +8580,10 @@
     </row>
     <row r="94" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O94" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P94" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q94" t="s">
         <v>39</v>
@@ -8543,13 +8591,13 @@
     </row>
     <row r="95" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D95" t="s">
         <v>29</v>
@@ -8561,16 +8609,16 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H95" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O95" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P95" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q95" t="s">
         <v>39</v>
@@ -8578,10 +8626,10 @@
     </row>
     <row r="96" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O96" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P96" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q96" t="s">
         <v>39</v>
@@ -8589,13 +8637,13 @@
     </row>
     <row r="97" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B97" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D97" t="s">
         <v>29</v>
@@ -8607,16 +8655,16 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H97" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O97" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P97" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q97" t="s">
         <v>39</v>
@@ -8624,10 +8672,10 @@
     </row>
     <row r="98" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O98" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P98" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q98" t="s">
         <v>39</v>
@@ -8635,13 +8683,13 @@
     </row>
     <row r="99" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B99" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
@@ -8653,16 +8701,16 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H99" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O99" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q99" t="s">
         <v>39</v>
@@ -8670,10 +8718,10 @@
     </row>
     <row r="100" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O100" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P100" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q100" t="s">
         <v>39</v>
@@ -8681,13 +8729,13 @@
     </row>
     <row r="101" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B101" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D101" t="s">
         <v>29</v>
@@ -8699,16 +8747,16 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H101" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O101" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P101" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q101" t="s">
         <v>39</v>
@@ -8716,10 +8764,10 @@
     </row>
     <row r="102" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O102" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P102" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q102" t="s">
         <v>39</v>
@@ -8727,13 +8775,13 @@
     </row>
     <row r="103" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B103" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
@@ -8745,16 +8793,16 @@
         <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H103" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O103" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P103" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q103" t="s">
         <v>39</v>
@@ -8762,10 +8810,10 @@
     </row>
     <row r="104" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O104" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P104" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q104" t="s">
         <v>39</v>
@@ -8773,13 +8821,13 @@
     </row>
     <row r="105" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B105" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
@@ -8791,16 +8839,16 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H105" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O105" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P105" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q105" t="s">
         <v>39</v>
@@ -8808,10 +8856,10 @@
     </row>
     <row r="106" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O106" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P106" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q106" t="s">
         <v>39</v>
@@ -8819,13 +8867,13 @@
     </row>
     <row r="107" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B107" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
@@ -8837,16 +8885,16 @@
         <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H107" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="O107" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P107" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q107" t="s">
         <v>39</v>
@@ -8854,10 +8902,10 @@
     </row>
     <row r="108" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O108" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P108" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q108" t="s">
         <v>39</v>
@@ -8865,13 +8913,13 @@
     </row>
     <row r="109" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B109" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
@@ -8883,16 +8931,16 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H109" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O109" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P109" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q109" t="s">
         <v>39</v>
@@ -8900,10 +8948,10 @@
     </row>
     <row r="110" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O110" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P110" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q110" t="s">
         <v>39</v>
@@ -8911,13 +8959,13 @@
     </row>
     <row r="111" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B111" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
@@ -8929,16 +8977,16 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H111" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O111" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P111" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q111" t="s">
         <v>39</v>
@@ -8946,10 +8994,10 @@
     </row>
     <row r="112" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O112" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P112" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q112" t="s">
         <v>39</v>
@@ -8957,13 +9005,13 @@
     </row>
     <row r="113" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B113" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D113" t="s">
         <v>29</v>
@@ -8975,16 +9023,16 @@
         <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H113" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="O113" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P113" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q113" t="s">
         <v>39</v>
@@ -8992,10 +9040,10 @@
     </row>
     <row r="114" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O114" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P114" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q114" t="s">
         <v>39</v>
@@ -9003,13 +9051,13 @@
     </row>
     <row r="115" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B115" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
@@ -9021,16 +9069,16 @@
         <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H115" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O115" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P115" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q115" t="s">
         <v>39</v>
@@ -9038,10 +9086,10 @@
     </row>
     <row r="116" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O116" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P116" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q116" t="s">
         <v>39</v>
@@ -9049,13 +9097,13 @@
     </row>
     <row r="117" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B117" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D117" t="s">
         <v>29</v>
@@ -9067,22 +9115,22 @@
         <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H117" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="O117" t="s">
         <v>49</v>
       </c>
       <c r="P117" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q117" t="s">
         <v>50</v>
@@ -9091,18 +9139,18 @@
         <v>64</v>
       </c>
       <c r="Z117" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B118" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D118" t="s">
         <v>29</v>
@@ -9114,16 +9162,16 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H118" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="O118" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P118" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q118" t="s">
         <v>39</v>
@@ -9131,13 +9179,13 @@
     </row>
     <row r="119" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B119" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D119" t="s">
         <v>29</v>
@@ -9149,16 +9197,16 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H119" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O119" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P119" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q119" t="s">
         <v>39</v>
@@ -9166,10 +9214,10 @@
     </row>
     <row r="120" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O120" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P120" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q120" t="s">
         <v>39</v>
@@ -9177,13 +9225,13 @@
     </row>
     <row r="121" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B121" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
@@ -9195,16 +9243,16 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H121" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O121" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P121" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q121" t="s">
         <v>39</v>
@@ -9212,10 +9260,10 @@
     </row>
     <row r="122" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O122" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="P122" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q122" t="s">
         <v>39</v>
@@ -9223,13 +9271,13 @@
     </row>
     <row r="123" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B123" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
@@ -9241,16 +9289,16 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H123" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="O123" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P123" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q123" t="s">
         <v>39</v>
@@ -9258,10 +9306,10 @@
     </row>
     <row r="124" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O124" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P124" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q124" t="s">
         <v>39</v>
@@ -9269,13 +9317,13 @@
     </row>
     <row r="125" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B125" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
@@ -9287,22 +9335,22 @@
         <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H125" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="O125" t="s">
         <v>49</v>
       </c>
       <c r="P125" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q125" t="s">
         <v>50</v>
@@ -9311,18 +9359,18 @@
         <v>64</v>
       </c>
       <c r="Z125" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B126" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
@@ -9334,33 +9382,33 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H126" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="O126" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P126" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q126" t="s">
         <v>50</v>
       </c>
       <c r="Y126" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Z126" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P127" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q127" t="s">
         <v>39</v>
@@ -9368,13 +9416,13 @@
     </row>
     <row r="128" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B128" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
@@ -9386,39 +9434,39 @@
         <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H128" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O128" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P128" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q128" t="s">
         <v>50</v>
       </c>
       <c r="Y128" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Z128" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O129" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P129" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q129" t="s">
         <v>50</v>
@@ -9427,18 +9475,18 @@
         <v>64</v>
       </c>
       <c r="Z129" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B130" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
@@ -9450,16 +9498,16 @@
         <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H130" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="O130" t="s">
         <v>99</v>
       </c>
       <c r="P130" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Q130" t="s">
         <v>39</v>
@@ -9467,13 +9515,13 @@
     </row>
     <row r="131" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B131" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
@@ -9485,16 +9533,16 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H131" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="O131" t="s">
         <v>49</v>
@@ -9509,18 +9557,18 @@
         <v>64</v>
       </c>
       <c r="Z131" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
@@ -9532,16 +9580,16 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H132" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="O132" t="s">
         <v>49</v>
       </c>
       <c r="P132" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="Q132" t="s">
         <v>50</v>
@@ -9555,13 +9603,13 @@
     </row>
     <row r="133" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B133" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
@@ -9573,16 +9621,16 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O133" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="P133" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="Q133" t="s">
         <v>39</v>
@@ -9590,13 +9638,13 @@
     </row>
     <row r="134" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B134" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
@@ -9608,16 +9656,16 @@
         <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H134" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="O134" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P134" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="Q134" t="s">
         <v>39</v>
@@ -9625,13 +9673,13 @@
     </row>
     <row r="135" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B135" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
@@ -9643,16 +9691,16 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H135" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="O135" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="P135" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Q135" t="s">
         <v>39</v>
@@ -9660,10 +9708,10 @@
     </row>
     <row r="136" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O136" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P136" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q136" t="s">
         <v>39</v>
@@ -9671,10 +9719,10 @@
     </row>
     <row r="137" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O137" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="P137" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q137" t="s">
         <v>39</v>
@@ -9682,10 +9730,10 @@
     </row>
     <row r="138" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O138" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="P138" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Q138" t="s">
         <v>39</v>
@@ -9693,13 +9741,13 @@
     </row>
     <row r="139" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B139" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
@@ -9711,16 +9759,16 @@
         <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H139" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="O139" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P139" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q139" t="s">
         <v>39</v>
@@ -9728,13 +9776,13 @@
     </row>
     <row r="140" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B140" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D140" t="s">
         <v>29</v>
@@ -9746,16 +9794,16 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H140" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="O140" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="P140" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="Q140" t="s">
         <v>39</v>
@@ -9763,13 +9811,13 @@
     </row>
     <row r="141" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B141" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
@@ -9781,16 +9829,16 @@
         <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H141" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O141" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="P141" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="s">
         <v>39</v>
@@ -9798,13 +9846,13 @@
     </row>
     <row r="142" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B142" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
@@ -9816,16 +9864,16 @@
         <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H142" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O142" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="P142" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="Q142" t="s">
         <v>39</v>
@@ -9833,13 +9881,13 @@
     </row>
     <row r="143" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B143" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
@@ -9851,16 +9899,16 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H143" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O143" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P143" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q143" t="s">
         <v>39</v>
@@ -9868,13 +9916,13 @@
     </row>
     <row r="144" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B144" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D144" t="s">
         <v>29</v>
@@ -9886,16 +9934,16 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H144" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O144" t="s">
         <v>49</v>
@@ -9910,18 +9958,18 @@
         <v>64</v>
       </c>
       <c r="Z144" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B145" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
@@ -9933,16 +9981,16 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H145" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O145" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="P145" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Q145" t="s">
         <v>39</v>
@@ -9950,10 +9998,10 @@
     </row>
     <row r="146" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O146" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="P146" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="Q146" t="s">
         <v>39</v>
@@ -9961,10 +10009,10 @@
     </row>
     <row r="147" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O147" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="P147" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q147" t="s">
         <v>39</v>
@@ -9972,13 +10020,13 @@
     </row>
     <row r="148" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B148" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
@@ -9990,16 +10038,16 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H148" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="O148" t="s">
         <v>49</v>
@@ -10014,18 +10062,18 @@
         <v>64</v>
       </c>
       <c r="Z148" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B149" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D149" t="s">
         <v>29</v>
@@ -10037,16 +10085,16 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H149" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="O149" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="P149" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Q149" t="s">
         <v>39</v>
@@ -10054,10 +10102,10 @@
     </row>
     <row r="150" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O150" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P150" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q150" t="s">
         <v>39</v>
@@ -10065,13 +10113,13 @@
     </row>
     <row r="151" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B151" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
@@ -10083,16 +10131,16 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H151" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="O151" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="P151" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="Q151" t="s">
         <v>39</v>
@@ -10100,13 +10148,13 @@
     </row>
     <row r="152" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B152" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D152" t="s">
         <v>29</v>
@@ -10118,16 +10166,16 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H152" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O152" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P152" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q152" t="s">
         <v>39</v>
@@ -10135,13 +10183,13 @@
     </row>
     <row r="153" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B153" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D153" t="s">
         <v>29</v>
@@ -10153,16 +10201,16 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H153" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="O153" t="s">
         <v>49</v>
@@ -10182,13 +10230,13 @@
     </row>
     <row r="154" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B154" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -10200,16 +10248,16 @@
         <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H154" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O154" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P154" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q154" t="s">
         <v>39</v>
@@ -10217,13 +10265,13 @@
     </row>
     <row r="155" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B155" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
@@ -10235,30 +10283,33 @@
         <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H155" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="O155" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P155" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="Q155" t="s">
         <v>39</v>
+      </c>
+      <c r="T155" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B156" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D156" t="s">
         <v>29</v>
@@ -10270,16 +10321,16 @@
         <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H156" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="O156" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P156" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q156" t="s">
         <v>39</v>
@@ -10287,13 +10338,13 @@
     </row>
     <row r="157" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B157" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D157" t="s">
         <v>29</v>
@@ -10305,16 +10356,16 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H157" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="O157" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P157" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="Q157" t="s">
         <v>39</v>
@@ -10322,13 +10373,13 @@
     </row>
     <row r="158" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B158" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D158" t="s">
         <v>29</v>
@@ -10340,16 +10391,16 @@
         <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H158" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="O158" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P158" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q158" t="s">
         <v>39</v>
@@ -10357,13 +10408,13 @@
     </row>
     <row r="159" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B159" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D159" t="s">
         <v>29</v>
@@ -10375,28 +10426,28 @@
         <v>31</v>
       </c>
       <c r="G159" t="s">
+        <v>679</v>
+      </c>
+      <c r="H159" t="s">
+        <v>680</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="N159" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="H159" t="s">
-        <v>685</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="N159" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="O159" t="s">
         <v>49</v>
       </c>
       <c r="P159" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q159" t="s">
         <v>50</v>
@@ -10410,13 +10461,13 @@
     </row>
     <row r="160" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B160" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
@@ -10428,36 +10479,39 @@
         <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H160" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="O160" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="P160" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="Q160" t="s">
         <v>50</v>
       </c>
+      <c r="T160" t="s">
+        <v>836</v>
+      </c>
       <c r="Y160" s="2">
         <v>208220230240277</v>
       </c>
       <c r="Z160" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B161" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
@@ -10469,48 +10523,48 @@
         <v>31</v>
       </c>
       <c r="G161" t="s">
+        <v>695</v>
+      </c>
+      <c r="H161" t="s">
+        <v>696</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="N161" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H161" t="s">
+      <c r="O161" t="s">
         <v>701</v>
       </c>
-      <c r="K161" s="1" t="s">
+      <c r="P161" t="s">
         <v>702</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="O161" t="s">
-        <v>706</v>
-      </c>
-      <c r="P161" t="s">
-        <v>707</v>
       </c>
       <c r="Q161" t="s">
         <v>50</v>
       </c>
       <c r="Y161" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="Z161" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B162" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
@@ -10522,16 +10576,16 @@
         <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H162" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="O162" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="P162" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Q162" t="s">
         <v>39</v>
@@ -10539,13 +10593,13 @@
     </row>
     <row r="163" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B163" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D163" t="s">
         <v>29</v>
@@ -10557,16 +10611,16 @@
         <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H163" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="O163" t="s">
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="Q163" t="s">
         <v>39</v>
@@ -10580,13 +10634,13 @@
     </row>
     <row r="164" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B164" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D164" t="s">
         <v>29</v>
@@ -10598,16 +10652,16 @@
         <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H164" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O164" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P164" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Q164" t="s">
         <v>39</v>
@@ -10615,13 +10669,13 @@
     </row>
     <row r="165" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B165" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
@@ -10633,22 +10687,25 @@
         <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H165" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="O165" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="P165" t="s">
-        <v>360</v>
+        <v>834</v>
       </c>
       <c r="Q165" t="s">
         <v>39</v>
       </c>
       <c r="R165" t="s">
-        <v>731</v>
+        <v>726</v>
+      </c>
+      <c r="T165" t="s">
+        <v>831</v>
       </c>
       <c r="U165">
         <v>0</v>
@@ -10657,21 +10714,24 @@
         <v>90</v>
       </c>
       <c r="W165" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O166" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P166" t="s">
-        <v>362</v>
+        <v>835</v>
       </c>
       <c r="Q166" t="s">
         <v>39</v>
       </c>
       <c r="R166" t="s">
-        <v>732</v>
+        <v>727</v>
+      </c>
+      <c r="T166" t="s">
+        <v>831</v>
       </c>
       <c r="U166">
         <v>5</v>
@@ -10680,18 +10740,18 @@
         <v>100</v>
       </c>
       <c r="X166" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B167" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
@@ -10703,36 +10763,36 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H167" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="O167" t="s">
         <v>49</v>
       </c>
       <c r="P167" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="Q167" t="s">
         <v>50</v>
       </c>
       <c r="Y167" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="Z167" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B168" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D168" t="s">
         <v>29</v>
@@ -10744,16 +10804,16 @@
         <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H168" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="O168" t="s">
         <v>49</v>
       </c>
       <c r="P168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q168" t="s">
         <v>50</v>
@@ -10762,18 +10822,18 @@
         <v>64</v>
       </c>
       <c r="Z168" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B169" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
@@ -10785,16 +10845,16 @@
         <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H169" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="O169" t="s">
         <v>49</v>
       </c>
       <c r="P169" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q169" t="s">
         <v>50</v>
@@ -10808,13 +10868,13 @@
     </row>
     <row r="170" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B170" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
@@ -10826,28 +10886,28 @@
         <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H170" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="O170" t="s">
         <v>49</v>
       </c>
       <c r="P170" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="Q170" t="s">
         <v>50</v>
@@ -10861,13 +10921,13 @@
     </row>
     <row r="171" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B171" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
@@ -10879,22 +10939,25 @@
         <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H171" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="O171" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="P171" t="s">
-        <v>360</v>
+        <v>834</v>
       </c>
       <c r="Q171" t="s">
         <v>39</v>
       </c>
       <c r="R171" t="s">
-        <v>762</v>
+        <v>757</v>
+      </c>
+      <c r="T171" t="s">
+        <v>831</v>
       </c>
       <c r="U171">
         <v>0</v>
@@ -10903,21 +10966,24 @@
         <v>100</v>
       </c>
       <c r="W171" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O172" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>835</v>
       </c>
       <c r="Q172" t="s">
         <v>39</v>
       </c>
       <c r="R172" t="s">
-        <v>763</v>
+        <v>758</v>
+      </c>
+      <c r="T172" t="s">
+        <v>831</v>
       </c>
       <c r="U172">
         <v>0</v>
@@ -10926,18 +10992,18 @@
         <v>100</v>
       </c>
       <c r="X172" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B173" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D173" t="s">
         <v>29</v>
@@ -10949,22 +11015,22 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
+        <v>762</v>
+      </c>
+      <c r="H173" t="s">
+        <v>763</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="N173" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="H173" t="s">
-        <v>768</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="O173" t="s">
         <v>49</v>
@@ -10976,18 +11042,18 @@
         <v>64</v>
       </c>
       <c r="Z173" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B174" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D174" t="s">
         <v>29</v>
@@ -10999,16 +11065,16 @@
         <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H174" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="O174" t="s">
         <v>49</v>
       </c>
       <c r="P174" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="Q174" t="s">
         <v>50</v>
@@ -11017,18 +11083,18 @@
         <v>64</v>
       </c>
       <c r="Z174" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B175" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
@@ -11040,16 +11106,16 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H175" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="O175" t="s">
         <v>99</v>
       </c>
       <c r="P175" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="Q175" t="s">
         <v>39</v>
@@ -11063,13 +11129,13 @@
     </row>
     <row r="176" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B176" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D176" t="s">
         <v>29</v>
@@ -11081,16 +11147,16 @@
         <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H176" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="O176" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="P176" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="Q176" t="s">
         <v>39</v>
@@ -11102,15 +11168,15 @@
         <v>100</v>
       </c>
       <c r="W176" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="177" spans="15:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O177" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="P177" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="Q177" t="s">
         <v>39</v>
@@ -11122,7 +11188,7 @@
         <v>100</v>
       </c>
       <c r="X177" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/matter.xlsx
+++ b/matter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamGathright\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1421D-DA2D-4B54-953D-09F97CF8F556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F3618D-1F33-45BE-A9F3-C14A52BC11C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="10545" activeTab="1" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
   </bookViews>
   <sheets>
     <sheet name="help" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="907">
   <si>
     <t>command_id</t>
   </si>
@@ -625,9 +625,6 @@
     <t>Keeps power export at or near zero by adjusting inverter output in real time. When enabled, the inverter supplies only local (on-site) loads and will not send power back to the grid. This mode is required when grid export is not allowed. Ensure the CTs are installed on the grid connection point and  not on the inverter's load side, so the inverter can correctly detect and prevent export.</t>
   </si>
   <si>
-    <t>FastZeroExportStatus</t>
-  </si>
-  <si>
     <t>Fast Zero Export</t>
   </si>
   <si>
@@ -1245,16 +1242,7 @@
     <t>ChargeCtrlType</t>
   </si>
   <si>
-    <t>Charge Control</t>
-  </si>
-  <si>
     <t>SOC,Volt</t>
-  </si>
-  <si>
-    <t>DisChargeCtrlType</t>
-  </si>
-  <si>
-    <t>Discharge Control</t>
   </si>
   <si>
     <t>BatteryBase.ChargeLimitSoc</t>
@@ -4368,9 +4356,6 @@
     <t>pDischgT1</t>
   </si>
   <si>
-    <t>pDischgTEndT1</t>
-  </si>
-  <si>
     <t>dischgST1</t>
   </si>
   <si>
@@ -4528,6 +4513,18 @@
   </si>
   <si>
     <t>SmartLoadOffSoc</t>
+  </si>
+  <si>
+    <t>FastzeroExportstatus</t>
+  </si>
+  <si>
+    <t>GridVoltLimit2HighTime</t>
+  </si>
+  <si>
+    <t>socDischgEndT1</t>
+  </si>
+  <si>
+    <t>genDryContactState</t>
   </si>
 </sst>
 </file>
@@ -5420,13 +5417,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5442,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,10 +5475,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5489,10 +5486,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5500,10 +5497,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5511,10 +5508,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5522,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5533,10 +5530,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5544,10 +5541,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5555,10 +5552,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5566,10 +5563,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5577,10 +5574,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5588,10 +5585,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5599,10 +5596,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5610,10 +5607,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5621,10 +5618,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5632,10 +5629,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5643,10 +5640,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -5656,10 +5653,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E6F9F-94E9-4923-9FA9-34B4E6FF732D}">
-  <dimension ref="A1:AD177"/>
+  <dimension ref="A1:AD176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5753,16 +5751,16 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="AB1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="AC1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="AD1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5773,7 +5771,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -5821,7 +5819,7 @@
         <v>40104</v>
       </c>
       <c r="AB2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC2" t="s">
         <v>37</v>
@@ -5847,10 +5845,10 @@
         <v>40104</v>
       </c>
       <c r="AB3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,7 +5871,7 @@
         <v>40104</v>
       </c>
       <c r="AB4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC4" t="s">
         <v>40</v>
@@ -5899,7 +5897,7 @@
         <v>40104</v>
       </c>
       <c r="AB5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC5" t="s">
         <v>41</v>
@@ -5925,10 +5923,10 @@
         <v>40104</v>
       </c>
       <c r="AB6" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5951,10 +5949,10 @@
         <v>40104</v>
       </c>
       <c r="AB7" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC7" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,10 +5999,10 @@
         <v>40104</v>
       </c>
       <c r="AB8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" ref="AC3:AC66" si="0">H8</f>
+        <f t="shared" ref="AC8:AC44" si="0">H8</f>
         <v>OperatingMode</v>
       </c>
     </row>
@@ -6052,7 +6050,7 @@
         <v>40104</v>
       </c>
       <c r="AB9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="0"/>
@@ -6099,16 +6097,6 @@
       <c r="Z10" t="s">
         <v>64</v>
       </c>
-      <c r="AA10">
-        <v>40104</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="0"/>
-        <v>GridLossWarningClear</v>
-      </c>
     </row>
     <row r="11" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6154,11 +6142,10 @@
         <v>40104</v>
       </c>
       <c r="AB11" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="0"/>
-        <v>PowerStatus</v>
+        <v>837</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6186,12 +6173,6 @@
       <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="AA12">
-        <v>40104</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="13" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6233,16 +6214,6 @@
       <c r="Z13" t="s">
         <v>85</v>
       </c>
-      <c r="AA13">
-        <v>40104</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="0"/>
-        <v>PowerControl</v>
-      </c>
     </row>
     <row r="14" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6294,7 +6265,7 @@
         <v>40104</v>
       </c>
       <c r="AB14" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="0"/>
@@ -6336,7 +6307,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -6348,7 +6319,7 @@
         <v>40104</v>
       </c>
       <c r="AB15" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="0"/>
@@ -6411,7 +6382,7 @@
         <v>40104</v>
       </c>
       <c r="AB16" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="0"/>
@@ -6453,7 +6424,7 @@
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -6465,7 +6436,7 @@
         <v>40104</v>
       </c>
       <c r="AB17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="0"/>
@@ -6495,13 +6466,13 @@
         <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>903</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q18" t="s">
         <v>49</v>
@@ -6510,28 +6481,28 @@
         <v>63</v>
       </c>
       <c r="Z18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA18">
         <v>40104</v>
       </c>
       <c r="AB18" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="0"/>
-        <v>FastZeroExportStatus</v>
+        <v>FastzeroExportstatus</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -6543,22 +6514,22 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
+      <c r="O19" t="s">
         <v>125</v>
       </c>
-      <c r="O19" t="s">
-        <v>126</v>
-      </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="s">
         <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -6570,7 +6541,7 @@
         <v>40104</v>
       </c>
       <c r="AB19" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="0"/>
@@ -6579,13 +6550,13 @@
     </row>
     <row r="20" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -6597,28 +6568,28 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" t="s">
         <v>135</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>136</v>
-      </c>
-      <c r="P20" t="s">
-        <v>137</v>
       </c>
       <c r="Q20" t="s">
         <v>38</v>
@@ -6633,7 +6604,7 @@
         <v>40104</v>
       </c>
       <c r="AB20" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="0"/>
@@ -6642,13 +6613,13 @@
     </row>
     <row r="21" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
         <v>138</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -6660,31 +6631,31 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="s">
         <v>141</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>142</v>
-      </c>
-      <c r="P21" t="s">
-        <v>143</v>
       </c>
       <c r="Q21" t="s">
         <v>49</v>
       </c>
       <c r="Y21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z21" t="s">
         <v>144</v>
       </c>
-      <c r="Z21" t="s">
-        <v>145</v>
-      </c>
       <c r="AA21">
         <v>40104</v>
       </c>
       <c r="AB21" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="0"/>
@@ -6693,13 +6664,13 @@
     </row>
     <row r="22" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
         <v>146</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -6711,31 +6682,31 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O22" t="s">
         <v>149</v>
       </c>
-      <c r="O22" t="s">
-        <v>150</v>
-      </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q22" t="s">
         <v>49</v>
       </c>
       <c r="Y22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA22">
         <v>40104</v>
       </c>
       <c r="AB22" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="0"/>
@@ -6744,64 +6715,54 @@
     </row>
     <row r="23" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s">
         <v>152</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q23" t="s">
         <v>49</v>
       </c>
       <c r="Y23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z23" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA23">
-        <v>40104</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC23" t="str">
-        <f t="shared" si="0"/>
-        <v>ClearDetectedPhases</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
         <v>158</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -6813,46 +6774,45 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q24" t="s">
         <v>49</v>
       </c>
       <c r="Y24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA24">
         <v>40104</v>
       </c>
       <c r="AB24" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="0"/>
-        <v>DetectedGridPhases</v>
+        <v>837</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
         <v>163</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -6864,16 +6824,16 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s">
         <v>49</v>
@@ -6882,13 +6842,13 @@
         <v>63</v>
       </c>
       <c r="Z25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA25">
         <v>40104</v>
       </c>
       <c r="AB25" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="0"/>
@@ -6897,13 +6857,13 @@
     </row>
     <row r="26" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -6915,16 +6875,16 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
         <v>172</v>
       </c>
-      <c r="O26" t="s">
-        <v>173</v>
-      </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q26" t="s">
         <v>38</v>
@@ -6933,7 +6893,7 @@
         <v>40104</v>
       </c>
       <c r="AB26" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC26" t="str">
         <f t="shared" si="0"/>
@@ -6942,13 +6902,13 @@
     </row>
     <row r="27" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
         <v>174</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -6960,31 +6920,31 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q27" t="s">
         <v>49</v>
       </c>
       <c r="Y27" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z27" t="s">
         <v>178</v>
       </c>
-      <c r="Z27" t="s">
-        <v>179</v>
-      </c>
       <c r="AA27">
         <v>40104</v>
       </c>
       <c r="AB27" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="0"/>
@@ -6993,13 +6953,13 @@
     </row>
     <row r="28" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -7011,31 +6971,31 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q28" t="s">
         <v>49</v>
       </c>
       <c r="Y28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA28">
         <v>40104</v>
       </c>
       <c r="AB28" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC28" t="str">
         <f t="shared" si="0"/>
@@ -7044,13 +7004,13 @@
     </row>
     <row r="29" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
         <v>184</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -7062,43 +7022,43 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" t="s">
         <v>187</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" t="s">
         <v>192</v>
       </c>
-      <c r="O29" t="s">
-        <v>193</v>
-      </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q29" t="s">
         <v>49</v>
       </c>
       <c r="Y29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA29">
         <v>40104</v>
       </c>
       <c r="AB29" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="0"/>
@@ -7107,13 +7067,13 @@
     </row>
     <row r="30" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
         <v>195</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -7125,31 +7085,31 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q30" t="s">
         <v>49</v>
       </c>
       <c r="Y30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA30">
         <v>40104</v>
       </c>
       <c r="AB30" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC30" t="str">
         <f t="shared" si="0"/>
@@ -7158,13 +7118,13 @@
     </row>
     <row r="31" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" t="s">
         <v>200</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -7176,43 +7136,43 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" t="s">
         <v>203</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q31" t="s">
         <v>49</v>
       </c>
       <c r="Y31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z31" t="s">
         <v>209</v>
       </c>
-      <c r="Z31" t="s">
-        <v>210</v>
-      </c>
       <c r="AA31">
         <v>40104</v>
       </c>
       <c r="AB31" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="0"/>
@@ -7221,13 +7181,13 @@
     </row>
     <row r="32" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
         <v>211</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -7239,31 +7199,31 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s">
+        <v>213</v>
+      </c>
+      <c r="O32" t="s">
         <v>214</v>
       </c>
-      <c r="O32" t="s">
-        <v>215</v>
-      </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q32" t="s">
         <v>49</v>
       </c>
       <c r="Y32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA32">
         <v>40104</v>
       </c>
       <c r="AB32" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="0"/>
@@ -7272,13 +7232,13 @@
     </row>
     <row r="33" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
         <v>217</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -7290,28 +7250,28 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s">
         <v>220</v>
       </c>
-      <c r="O33" t="s">
-        <v>221</v>
-      </c>
       <c r="P33" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="Q33" t="s">
         <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AA33">
         <v>40104</v>
       </c>
       <c r="AB33" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="0"/>
@@ -7320,13 +7280,13 @@
     </row>
     <row r="34" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
         <v>222</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -7338,28 +7298,28 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P34" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="Q34" t="s">
         <v>38</v>
       </c>
       <c r="T34" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AA34">
         <v>40104</v>
       </c>
       <c r="AB34" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="0"/>
@@ -7368,13 +7328,13 @@
     </row>
     <row r="35" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
         <v>226</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -7386,28 +7346,28 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P35" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="Q35" t="s">
         <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AA35">
         <v>40104</v>
       </c>
       <c r="AB35" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="0"/>
@@ -7416,13 +7376,13 @@
     </row>
     <row r="36" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
         <v>230</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -7434,31 +7394,31 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s">
         <v>233</v>
       </c>
-      <c r="O36" t="s">
-        <v>234</v>
-      </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="Q36" t="s">
         <v>49</v>
       </c>
       <c r="Y36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AA36">
         <v>40104</v>
       </c>
       <c r="AB36" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC36" t="str">
         <f>H36</f>
@@ -7466,29 +7426,57 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" t="s">
+        <v>238</v>
+      </c>
       <c r="O37" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>236</v>
+        <v>38</v>
+      </c>
+      <c r="T37" t="s">
+        <v>826</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>100</v>
       </c>
       <c r="AA37">
         <v>40104</v>
       </c>
       <c r="AB37" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>233</v>
+        <v>837</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="0"/>
+        <v>ChargeLimitSoc</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7511,125 +7499,128 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
         <v>242</v>
       </c>
       <c r="O38" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="P38" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="Q38" t="s">
-        <v>38</v>
-      </c>
-      <c r="T38" t="s">
-        <v>830</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>245</v>
       </c>
       <c r="AA38">
         <v>40104</v>
       </c>
       <c r="AB38" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC38" t="str">
-        <f t="shared" si="0"/>
-        <v>ChargeLimitSoc</v>
+        <v>837</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="O39" t="s">
         <v>246</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>247</v>
-      </c>
-      <c r="P39" t="s">
-        <v>248</v>
       </c>
       <c r="Q39" t="s">
         <v>49</v>
       </c>
       <c r="Y39" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA39">
+        <v>40104</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
         <v>249</v>
       </c>
-      <c r="Z39" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA39">
-        <v>40104</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" t="s">
+        <v>251</v>
+      </c>
       <c r="O40" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="Q40" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>249</v>
+        <v>38</v>
+      </c>
+      <c r="R40" t="s">
+        <v>252</v>
+      </c>
+      <c r="T40" t="s">
+        <v>826</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>100</v>
       </c>
       <c r="AA40">
         <v>40104</v>
       </c>
       <c r="AB40" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>250</v>
+        <v>837</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="0"/>
+        <v>OnGridCutOffSoc</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -7641,25 +7632,25 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q41" t="s">
         <v>38</v>
       </c>
       <c r="R41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T41" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -7671,22 +7662,22 @@
         <v>40104</v>
       </c>
       <c r="AB41" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC41" t="str">
         <f t="shared" si="0"/>
-        <v>OnGridCutOffSoc</v>
+        <v>OffGridCutOffSoc</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -7698,52 +7689,48 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="O42" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="P42" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Q42" t="s">
-        <v>38</v>
-      </c>
-      <c r="R42" t="s">
-        <v>261</v>
-      </c>
-      <c r="T42" t="s">
-        <v>830</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>100</v>
-      </c>
-      <c r="AA42">
-        <v>40104</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="0"/>
-        <v>OffGridCutOffSoc</v>
+        <v>49</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -7755,47 +7742,28 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H43" t="s">
-        <v>266</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O43" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="P43" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA43">
-        <v>40104</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC43" t="str">
-        <f t="shared" si="0"/>
-        <v>BatteryBackupMode</v>
+        <v>38</v>
+      </c>
+      <c r="T43" t="s">
+        <v>826</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,49 +7786,58 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H44" t="s">
         <v>275</v>
       </c>
+      <c r="K44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="P44" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="Q44" t="s">
-        <v>38</v>
-      </c>
-      <c r="T44" t="s">
-        <v>830</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>281</v>
       </c>
       <c r="AA44">
         <v>40104</v>
       </c>
       <c r="AB44" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC44" t="str">
         <f t="shared" si="0"/>
-        <v>BatteryReserveSOC</v>
+        <v>BatteryScheduling</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
@@ -7872,58 +7849,63 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="O45" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>114</v>
       </c>
       <c r="Q45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>285</v>
+        <v>38</v>
+      </c>
+      <c r="R45" t="s">
+        <v>291</v>
+      </c>
+      <c r="T45" t="s">
+        <v>827</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>100</v>
       </c>
       <c r="AA45">
         <v>40104</v>
       </c>
       <c r="AB45" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC45" t="s">
         <v>841</v>
-      </c>
-      <c r="AC45" t="str">
-        <f t="shared" si="0"/>
-        <v>BatteryScheduling</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
@@ -7935,84 +7917,45 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H46" t="s">
-        <v>290</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O46" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="P46" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="Q46" t="s">
         <v>38</v>
       </c>
-      <c r="R46" t="s">
-        <v>295</v>
-      </c>
-      <c r="T46" t="s">
-        <v>831</v>
-      </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AA46">
         <v>40104</v>
       </c>
       <c r="AB46" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC46" t="s">
-        <v>845</v>
+        <v>842</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="O47" t="s">
         <v>298</v>
       </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>289</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="P47" t="s">
         <v>299</v>
-      </c>
-      <c r="O47" t="s">
-        <v>300</v>
-      </c>
-      <c r="P47" t="s">
-        <v>301</v>
       </c>
       <c r="Q47" t="s">
         <v>38</v>
@@ -8021,27 +7964,27 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA47">
         <v>40104</v>
       </c>
       <c r="AB47" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC47" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q48" t="s">
         <v>38</v>
@@ -8050,27 +7993,27 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA48">
         <v>40104</v>
       </c>
       <c r="AB48" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC48" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AD48" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q49" t="s">
         <v>38</v>
@@ -8079,27 +8022,51 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA49">
         <v>40104</v>
       </c>
       <c r="AB49" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC49" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" t="s">
+        <v>306</v>
+      </c>
       <c r="O50" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P50" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q50" t="s">
         <v>38</v>
@@ -8108,51 +8075,27 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA50">
         <v>40104</v>
       </c>
       <c r="AB50" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC50" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="AD50" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="O51" t="s">
         <v>298</v>
       </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>289</v>
-      </c>
-      <c r="H51" t="s">
-        <v>310</v>
-      </c>
-      <c r="O51" t="s">
-        <v>300</v>
-      </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q51" t="s">
         <v>38</v>
@@ -8161,27 +8104,27 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA51">
         <v>40104</v>
       </c>
       <c r="AB51" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC51" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q52" t="s">
         <v>38</v>
@@ -8190,27 +8133,27 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA52">
         <v>40104</v>
       </c>
       <c r="AB52" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC52" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AD52" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q53" t="s">
         <v>38</v>
@@ -8219,27 +8162,51 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA53">
         <v>40104</v>
       </c>
       <c r="AB53" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC53" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="AD53" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" t="s">
+        <v>309</v>
+      </c>
       <c r="O54" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P54" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q54" t="s">
         <v>38</v>
@@ -8248,51 +8215,27 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA54">
         <v>40104</v>
       </c>
       <c r="AB54" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC54" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AD54" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>311</v>
-      </c>
-      <c r="B55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="O55" t="s">
         <v>298</v>
       </c>
-      <c r="D55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H55" t="s">
-        <v>313</v>
-      </c>
-      <c r="O55" t="s">
-        <v>300</v>
-      </c>
       <c r="P55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q55" t="s">
         <v>38</v>
@@ -8301,27 +8244,27 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA55">
         <v>40104</v>
       </c>
       <c r="AB55" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC55" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="AD55" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q56" t="s">
         <v>38</v>
@@ -8330,27 +8273,27 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA56">
         <v>40104</v>
       </c>
       <c r="AB56" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC56" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AD56" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q57" t="s">
         <v>38</v>
@@ -8359,59 +8302,95 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA57">
         <v>40104</v>
       </c>
       <c r="AB57" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC57" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AD57" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>313</v>
+      </c>
+      <c r="H58" t="s">
+        <v>314</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="O58" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>307</v>
+        <v>114</v>
       </c>
       <c r="Q58" t="s">
         <v>38</v>
       </c>
+      <c r="R58" t="s">
+        <v>291</v>
+      </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="AA58">
         <v>40104</v>
       </c>
       <c r="AB58" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC58" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
@@ -8423,34 +8402,22 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H59" t="s">
-        <v>318</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N59" s="1" t="s">
         <v>322</v>
       </c>
       <c r="O59" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Q59" t="s">
         <v>38</v>
       </c>
-      <c r="R59" t="s">
-        <v>295</v>
+      <c r="T59" t="s">
+        <v>826</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -8462,10 +8429,10 @@
         <v>40104</v>
       </c>
       <c r="AB59" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC59" t="s">
-        <v>853</v>
+        <v>905</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8488,69 +8455,45 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H60" t="s">
         <v>326</v>
       </c>
       <c r="O60" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="P60" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="Q60" t="s">
         <v>38</v>
       </c>
-      <c r="T60" t="s">
-        <v>830</v>
-      </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AA60">
         <v>40104</v>
       </c>
       <c r="AB60" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC60" t="s">
-        <v>854</v>
+        <v>850</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>327</v>
-      </c>
-      <c r="B61" t="s">
-        <v>328</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>317</v>
-      </c>
-      <c r="H61" t="s">
-        <v>330</v>
-      </c>
       <c r="O61" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q61" t="s">
         <v>38</v>
@@ -8559,27 +8502,27 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA61">
         <v>40104</v>
       </c>
       <c r="AB61" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC61" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="AD61" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q62" t="s">
         <v>38</v>
@@ -8588,27 +8531,27 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA62">
         <v>40104</v>
       </c>
       <c r="AB62" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC62" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AD62" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q63" t="s">
         <v>38</v>
@@ -8617,27 +8560,51 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA63">
         <v>40104</v>
       </c>
       <c r="AB63" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC63" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="AD63" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>313</v>
+      </c>
+      <c r="H64" t="s">
+        <v>329</v>
+      </c>
       <c r="O64" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P64" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q64" t="s">
         <v>38</v>
@@ -8646,51 +8613,27 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA64">
         <v>40104</v>
       </c>
       <c r="AB64" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC64" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AD64" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>331</v>
-      </c>
-      <c r="B65" t="s">
-        <v>332</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>317</v>
-      </c>
-      <c r="H65" t="s">
-        <v>333</v>
-      </c>
       <c r="O65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q65" t="s">
         <v>38</v>
@@ -8699,27 +8642,27 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA65">
         <v>40104</v>
       </c>
       <c r="AB65" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC65" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="AD65" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q66" t="s">
         <v>38</v>
@@ -8728,27 +8671,27 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA66">
         <v>40104</v>
       </c>
       <c r="AB66" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC66" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="AD66" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q67" t="s">
         <v>38</v>
@@ -8757,27 +8700,51 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA67">
         <v>40104</v>
       </c>
       <c r="AB67" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC67" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AD67" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>330</v>
+      </c>
+      <c r="B68" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="H68" t="s">
+        <v>332</v>
+      </c>
       <c r="O68" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P68" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q68" t="s">
         <v>38</v>
@@ -8786,51 +8753,27 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA68">
         <v>40104</v>
       </c>
       <c r="AB68" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC68" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="AD68" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" t="s">
-        <v>335</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D69" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>317</v>
-      </c>
-      <c r="H69" t="s">
-        <v>336</v>
-      </c>
       <c r="O69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q69" t="s">
         <v>38</v>
@@ -8839,27 +8782,27 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA69">
         <v>40104</v>
       </c>
       <c r="AB69" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC69" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AD69" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q70" t="s">
         <v>38</v>
@@ -8868,27 +8811,27 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA70">
         <v>40104</v>
       </c>
       <c r="AB70" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC70" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="AD70" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O71" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q71" t="s">
         <v>38</v>
@@ -8897,59 +8840,93 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA71">
         <v>40104</v>
       </c>
       <c r="AB71" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC71" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="AD71" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" t="s">
+        <v>336</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="O72" t="s">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c r="P72" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="Q72" t="s">
-        <v>38</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>342</v>
       </c>
       <c r="AA72">
         <v>40104</v>
       </c>
       <c r="AB72" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="AC72" t="str">
+        <f t="shared" ref="AC72:AC129" si="1">H72</f>
+        <v>ACChargeStatus</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
@@ -8961,58 +8938,46 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" t="s">
-        <v>340</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O73" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q73" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>346</v>
+        <v>38</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>100</v>
       </c>
       <c r="AA73">
         <v>40104</v>
       </c>
       <c r="AB73" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" ref="AC67:AC130" si="1">H73</f>
-        <v>ACChargeStatus</v>
+        <f t="shared" si="1"/>
+        <v>ACChargePower</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
@@ -9024,16 +8989,16 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O74" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>351</v>
+        <v>829</v>
       </c>
       <c r="Q74" t="s">
         <v>38</v>
@@ -9044,112 +9009,115 @@
       <c r="V74">
         <v>100</v>
       </c>
+      <c r="W74" t="s">
+        <v>352</v>
+      </c>
       <c r="AA74">
         <v>40104</v>
       </c>
       <c r="AB74" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC74" t="str">
         <f t="shared" si="1"/>
-        <v>ACChargePower</v>
+        <v>ACChgStartSOC</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="O75" t="s">
         <v>352</v>
       </c>
-      <c r="B75" t="s">
-        <v>353</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>124</v>
-      </c>
-      <c r="H75" t="s">
-        <v>355</v>
-      </c>
-      <c r="O75" t="s">
-        <v>126</v>
-      </c>
       <c r="P75" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Q75" t="s">
         <v>38</v>
       </c>
+      <c r="T75" t="s">
+        <v>826</v>
+      </c>
       <c r="U75">
         <v>0</v>
       </c>
       <c r="V75">
         <v>100</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA75">
+        <v>40104</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" t="s">
+        <v>354</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" t="s">
         <v>356</v>
       </c>
-      <c r="AA75">
-        <v>40104</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC75" t="str">
+      <c r="O76" t="s">
+        <v>141</v>
+      </c>
+      <c r="P76" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>49</v>
+      </c>
+      <c r="T76" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA76">
+        <v>40104</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC76" t="str">
         <f t="shared" si="1"/>
-        <v>ACChgStartSOC</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O76" t="s">
-        <v>356</v>
-      </c>
-      <c r="P76" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>38</v>
-      </c>
-      <c r="T76" t="s">
-        <v>830</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>100</v>
-      </c>
-      <c r="X76" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA76">
-        <v>40104</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>125</v>
+        <v>ACChargeType</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
@@ -9161,70 +9129,45 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O77" t="s">
-        <v>142</v>
+        <v>364</v>
       </c>
       <c r="P77" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q77" t="s">
-        <v>49</v>
-      </c>
-      <c r="T77" t="s">
-        <v>830</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>363</v>
+        <v>38</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>23</v>
       </c>
       <c r="AA77">
         <v>40104</v>
       </c>
       <c r="AB77" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC77" t="str">
-        <f t="shared" si="1"/>
-        <v>ACChargeType</v>
+        <v>837</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>364</v>
-      </c>
-      <c r="B78" t="s">
-        <v>365</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="O78" t="s">
         <v>366</v>
       </c>
-      <c r="D78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>124</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="P78" t="s">
         <v>367</v>
-      </c>
-      <c r="O78" t="s">
-        <v>368</v>
-      </c>
-      <c r="P78" t="s">
-        <v>369</v>
       </c>
       <c r="Q78" t="s">
         <v>38</v>
@@ -9233,27 +9176,27 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA78">
         <v>40104</v>
       </c>
       <c r="AB78" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC78" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="AD78" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P79" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q79" t="s">
         <v>38</v>
@@ -9262,27 +9205,27 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA79">
         <v>40104</v>
       </c>
       <c r="AB79" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC79" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AD79" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q80" t="s">
         <v>38</v>
@@ -9291,27 +9234,27 @@
         <v>0</v>
       </c>
       <c r="V80">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA80">
         <v>40104</v>
       </c>
       <c r="AB80" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC80" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="AD80" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O81" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P81" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q81" t="s">
         <v>38</v>
@@ -9320,27 +9263,27 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA81">
         <v>40104</v>
       </c>
       <c r="AB81" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC81" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="AD81" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O82" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P82" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q82" t="s">
         <v>38</v>
@@ -9349,27 +9292,27 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA82">
         <v>40104</v>
       </c>
       <c r="AB82" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC82" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="AD82" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P83" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q83" t="s">
         <v>38</v>
@@ -9378,27 +9321,27 @@
         <v>0</v>
       </c>
       <c r="V83">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA83">
         <v>40104</v>
       </c>
       <c r="AB83" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC83" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="AD83" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q84" t="s">
         <v>38</v>
@@ -9407,27 +9350,27 @@
         <v>0</v>
       </c>
       <c r="V84">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA84">
         <v>40104</v>
       </c>
       <c r="AB84" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC84" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="AD84" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O85" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P85" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q85" t="s">
         <v>38</v>
@@ -9436,27 +9379,27 @@
         <v>0</v>
       </c>
       <c r="V85">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA85">
         <v>40104</v>
       </c>
       <c r="AB85" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC85" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="AD85" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O86" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P86" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q86" t="s">
         <v>38</v>
@@ -9465,27 +9408,27 @@
         <v>0</v>
       </c>
       <c r="V86">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA86">
         <v>40104</v>
       </c>
       <c r="AB86" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC86" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="AD86" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P87" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q87" t="s">
         <v>38</v>
@@ -9494,27 +9437,27 @@
         <v>0</v>
       </c>
       <c r="V87">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="AA87">
         <v>40104</v>
       </c>
       <c r="AB87" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC87" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AD87" t="s">
-        <v>843</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P88" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q88" t="s">
         <v>38</v>
@@ -9523,59 +9466,93 @@
         <v>0</v>
       </c>
       <c r="V88">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AA88">
         <v>40104</v>
       </c>
       <c r="AB88" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC88" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="AD88" t="s">
-        <v>41</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>388</v>
+      </c>
+      <c r="B89" t="s">
+        <v>389</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>391</v>
+      </c>
+      <c r="H89" t="s">
+        <v>392</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="O89" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P89" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q89" t="s">
-        <v>38</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>399</v>
       </c>
       <c r="AA89">
         <v>40104</v>
       </c>
       <c r="AB89" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>866</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>843</v>
+        <v>837</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="1"/>
+        <v>GridRegulation</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B90" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
@@ -9587,58 +9564,46 @@
         <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H90" t="s">
-        <v>396</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O90" t="s">
-        <v>401</v>
+        <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q90" t="s">
         <v>49</v>
       </c>
       <c r="Y90" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Z90" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AA90">
         <v>40104</v>
       </c>
       <c r="AB90" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC90" t="str">
         <f t="shared" si="1"/>
-        <v>GridRegulation</v>
+        <v>GridType</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B91" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
@@ -9650,46 +9615,46 @@
         <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H91" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O91" t="s">
-        <v>142</v>
+        <v>411</v>
       </c>
       <c r="P91" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q91" t="s">
         <v>49</v>
       </c>
       <c r="Y91" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Z91" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AA91">
         <v>40104</v>
       </c>
       <c r="AB91" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC91" t="str">
         <f t="shared" si="1"/>
-        <v>GridType</v>
+        <v>GridFreq</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
@@ -9701,79 +9666,48 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="H92" t="s">
-        <v>414</v>
+        <v>419</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="O92" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P92" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q92" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="AA92">
         <v>40104</v>
       </c>
       <c r="AB92" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC92" t="str">
-        <f t="shared" si="1"/>
-        <v>GridFreq</v>
+        <v>837</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>419</v>
-      </c>
-      <c r="B93" t="s">
-        <v>420</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D93" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" t="s">
-        <v>30</v>
-      </c>
-      <c r="G93" t="s">
-        <v>422</v>
-      </c>
-      <c r="H93" t="s">
-        <v>423</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M93" s="1" t="s">
+      <c r="O93" t="s">
         <v>426</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="P93" t="s">
         <v>427</v>
-      </c>
-      <c r="O93" t="s">
-        <v>428</v>
-      </c>
-      <c r="P93" t="s">
-        <v>429</v>
       </c>
       <c r="Q93" t="s">
         <v>38</v>
@@ -9782,18 +9716,42 @@
         <v>40104</v>
       </c>
       <c r="AB93" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC93" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>428</v>
+      </c>
+      <c r="B94" t="s">
+        <v>429</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>418</v>
+      </c>
+      <c r="H94" t="s">
+        <v>430</v>
+      </c>
       <c r="O94" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P94" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q94" t="s">
         <v>38</v>
@@ -9802,42 +9760,18 @@
         <v>40104</v>
       </c>
       <c r="AB94" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC94" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>432</v>
-      </c>
-      <c r="B95" t="s">
-        <v>433</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D95" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" t="s">
-        <v>422</v>
-      </c>
-      <c r="H95" t="s">
-        <v>434</v>
-      </c>
       <c r="O95" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P95" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q95" t="s">
         <v>38</v>
@@ -9846,18 +9780,42 @@
         <v>40104</v>
       </c>
       <c r="AB95" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC95" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>418</v>
+      </c>
+      <c r="H96" t="s">
+        <v>433</v>
+      </c>
       <c r="O96" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P96" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q96" t="s">
         <v>38</v>
@@ -9866,42 +9824,18 @@
         <v>40104</v>
       </c>
       <c r="AB96" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC96" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>435</v>
-      </c>
-      <c r="B97" t="s">
-        <v>436</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D97" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s">
-        <v>422</v>
-      </c>
-      <c r="H97" t="s">
-        <v>437</v>
-      </c>
       <c r="O97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P97" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q97" t="s">
         <v>38</v>
@@ -9910,18 +9844,42 @@
         <v>40104</v>
       </c>
       <c r="AB97" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC97" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>418</v>
+      </c>
+      <c r="H98" t="s">
+        <v>437</v>
+      </c>
       <c r="O98" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P98" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q98" t="s">
         <v>38</v>
@@ -9930,42 +9888,18 @@
         <v>40104</v>
       </c>
       <c r="AB98" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC98" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="99" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>438</v>
-      </c>
-      <c r="B99" t="s">
-        <v>439</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="O99" t="s">
         <v>440</v>
       </c>
-      <c r="D99" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" t="s">
-        <v>422</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="P99" t="s">
         <v>441</v>
-      </c>
-      <c r="O99" t="s">
-        <v>442</v>
-      </c>
-      <c r="P99" t="s">
-        <v>443</v>
       </c>
       <c r="Q99" t="s">
         <v>38</v>
@@ -9974,18 +9908,42 @@
         <v>40104</v>
       </c>
       <c r="AB99" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC99" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>442</v>
+      </c>
+      <c r="B100" t="s">
+        <v>443</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>418</v>
+      </c>
+      <c r="H100" t="s">
+        <v>444</v>
+      </c>
       <c r="O100" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P100" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q100" t="s">
         <v>38</v>
@@ -9994,42 +9952,18 @@
         <v>40104</v>
       </c>
       <c r="AB100" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC100" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>446</v>
-      </c>
-      <c r="B101" t="s">
-        <v>447</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="O101" t="s">
         <v>440</v>
       </c>
-      <c r="D101" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" t="s">
-        <v>422</v>
-      </c>
-      <c r="H101" t="s">
-        <v>448</v>
-      </c>
-      <c r="O101" t="s">
-        <v>442</v>
-      </c>
       <c r="P101" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q101" t="s">
         <v>38</v>
@@ -10038,18 +9972,42 @@
         <v>40104</v>
       </c>
       <c r="AB101" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC101" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>445</v>
+      </c>
+      <c r="B102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" t="s">
+        <v>447</v>
+      </c>
       <c r="O102" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P102" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q102" t="s">
         <v>38</v>
@@ -10058,42 +10016,18 @@
         <v>40104</v>
       </c>
       <c r="AB102" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC102" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>449</v>
-      </c>
-      <c r="B103" t="s">
-        <v>450</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="O103" t="s">
         <v>440</v>
       </c>
-      <c r="D103" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103" t="s">
-        <v>422</v>
-      </c>
-      <c r="H103" t="s">
-        <v>451</v>
-      </c>
-      <c r="O103" t="s">
-        <v>442</v>
-      </c>
       <c r="P103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q103" t="s">
         <v>38</v>
@@ -10102,18 +10036,42 @@
         <v>40104</v>
       </c>
       <c r="AB103" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC103" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>448</v>
+      </c>
+      <c r="B104" t="s">
+        <v>449</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>418</v>
+      </c>
+      <c r="H104" t="s">
+        <v>451</v>
+      </c>
       <c r="O104" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P104" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q104" t="s">
         <v>38</v>
@@ -10122,42 +10080,18 @@
         <v>40104</v>
       </c>
       <c r="AB104" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC104" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>452</v>
-      </c>
-      <c r="B105" t="s">
-        <v>453</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="O105" t="s">
         <v>454</v>
       </c>
-      <c r="D105" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" t="s">
-        <v>422</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="P105" t="s">
         <v>455</v>
-      </c>
-      <c r="O105" t="s">
-        <v>456</v>
-      </c>
-      <c r="P105" t="s">
-        <v>457</v>
       </c>
       <c r="Q105" t="s">
         <v>38</v>
@@ -10166,18 +10100,42 @@
         <v>40104</v>
       </c>
       <c r="AB105" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC105" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>456</v>
+      </c>
+      <c r="B106" t="s">
+        <v>457</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H106" t="s">
+        <v>459</v>
+      </c>
       <c r="O106" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P106" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q106" t="s">
         <v>38</v>
@@ -10186,42 +10144,18 @@
         <v>40104</v>
       </c>
       <c r="AB106" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC106" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>460</v>
-      </c>
-      <c r="B107" t="s">
-        <v>461</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" t="s">
-        <v>422</v>
-      </c>
-      <c r="H107" t="s">
-        <v>463</v>
-      </c>
       <c r="O107" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P107" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q107" t="s">
         <v>38</v>
@@ -10230,18 +10164,42 @@
         <v>40104</v>
       </c>
       <c r="AB107" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC107" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" t="s">
+        <v>461</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>418</v>
+      </c>
+      <c r="H108" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O108" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P108" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q108" t="s">
         <v>38</v>
@@ -10250,42 +10208,18 @@
         <v>40104</v>
       </c>
       <c r="AB108" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC108" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>464</v>
-      </c>
-      <c r="B109" t="s">
-        <v>465</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D109" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" t="s">
-        <v>422</v>
-      </c>
-      <c r="H109" t="s">
-        <v>467</v>
-      </c>
       <c r="O109" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q109" t="s">
         <v>38</v>
@@ -10294,18 +10228,42 @@
         <v>40104</v>
       </c>
       <c r="AB109" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC109" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>464</v>
+      </c>
+      <c r="B110" t="s">
+        <v>465</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>418</v>
+      </c>
+      <c r="H110" t="s">
+        <v>467</v>
+      </c>
       <c r="O110" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P110" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Q110" t="s">
         <v>38</v>
@@ -10314,42 +10272,18 @@
         <v>40104</v>
       </c>
       <c r="AB110" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC110" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>468</v>
-      </c>
-      <c r="B111" t="s">
-        <v>469</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="O111" t="s">
         <v>470</v>
       </c>
-      <c r="D111" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" t="s">
-        <v>422</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="P111" t="s">
         <v>471</v>
-      </c>
-      <c r="O111" t="s">
-        <v>472</v>
-      </c>
-      <c r="P111" t="s">
-        <v>473</v>
       </c>
       <c r="Q111" t="s">
         <v>38</v>
@@ -10358,18 +10292,42 @@
         <v>40104</v>
       </c>
       <c r="AB111" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC111" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>472</v>
+      </c>
+      <c r="B112" t="s">
+        <v>473</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>418</v>
+      </c>
+      <c r="H112" t="s">
+        <v>475</v>
+      </c>
       <c r="O112" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="P112" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Q112" t="s">
         <v>38</v>
@@ -10378,42 +10336,18 @@
         <v>40104</v>
       </c>
       <c r="AB112" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC112" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>476</v>
-      </c>
-      <c r="B113" t="s">
-        <v>477</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D113" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" t="s">
-        <v>422</v>
-      </c>
-      <c r="H113" t="s">
-        <v>479</v>
-      </c>
       <c r="O113" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P113" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q113" t="s">
         <v>38</v>
@@ -10422,18 +10356,42 @@
         <v>40104</v>
       </c>
       <c r="AB113" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC113" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>476</v>
+      </c>
+      <c r="B114" t="s">
+        <v>477</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>418</v>
+      </c>
+      <c r="H114" t="s">
+        <v>479</v>
+      </c>
       <c r="O114" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="P114" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Q114" t="s">
         <v>38</v>
@@ -10442,42 +10400,18 @@
         <v>40104</v>
       </c>
       <c r="AB114" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC114" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>480</v>
-      </c>
-      <c r="B115" t="s">
-        <v>481</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="E115" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" t="s">
-        <v>422</v>
-      </c>
-      <c r="H115" t="s">
-        <v>483</v>
-      </c>
       <c r="O115" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P115" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q115" t="s">
         <v>38</v>
@@ -10486,41 +10420,78 @@
         <v>40104</v>
       </c>
       <c r="AB115" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC115" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>480</v>
+      </c>
+      <c r="B116" t="s">
+        <v>481</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>68</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>483</v>
+      </c>
+      <c r="H116" t="s">
+        <v>484</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="O116" t="s">
-        <v>474</v>
+        <v>48</v>
       </c>
       <c r="P116" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="Q116" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>488</v>
       </c>
       <c r="AA116">
         <v>40104</v>
       </c>
       <c r="AB116" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC116" t="s">
-        <v>889</v>
+        <v>837</v>
+      </c>
+      <c r="AC116" t="str">
+        <f t="shared" si="1"/>
+        <v>PermitServiceStatus</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
@@ -10532,52 +10503,40 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H117" t="s">
-        <v>488</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O117" t="s">
-        <v>48</v>
+        <v>493</v>
       </c>
       <c r="P117" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q117" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>492</v>
+        <v>38</v>
       </c>
       <c r="AA117">
         <v>40104</v>
       </c>
       <c r="AB117" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC117" t="str">
         <f t="shared" si="1"/>
-        <v>PermitServiceStatus</v>
+        <v>RampRate</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B118" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
@@ -10589,16 +10548,16 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H118" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O118" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P118" t="s">
-        <v>498</v>
+        <v>427</v>
       </c>
       <c r="Q118" t="s">
         <v>38</v>
@@ -10607,43 +10566,18 @@
         <v>40104</v>
       </c>
       <c r="AB118" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC118" t="str">
-        <f t="shared" si="1"/>
-        <v>RampRate</v>
+        <v>837</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>499</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="O119" t="s">
         <v>500</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" t="s">
-        <v>68</v>
-      </c>
-      <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>487</v>
-      </c>
-      <c r="H119" t="s">
-        <v>502</v>
-      </c>
-      <c r="O119" t="s">
-        <v>503</v>
-      </c>
       <c r="P119" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q119" t="s">
         <v>38</v>
@@ -10652,18 +10586,42 @@
         <v>40104</v>
       </c>
       <c r="AB119" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC119" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" t="s">
+        <v>502</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
+        <v>483</v>
+      </c>
+      <c r="H120" t="s">
+        <v>504</v>
+      </c>
       <c r="O120" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P120" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="Q120" t="s">
         <v>38</v>
@@ -10672,42 +10630,18 @@
         <v>40104</v>
       </c>
       <c r="AB120" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC120" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>505</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="O121" t="s">
         <v>506</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D121" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" t="s">
-        <v>68</v>
-      </c>
-      <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>487</v>
-      </c>
-      <c r="H121" t="s">
-        <v>508</v>
-      </c>
-      <c r="O121" t="s">
-        <v>509</v>
-      </c>
       <c r="P121" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q121" t="s">
         <v>38</v>
@@ -10716,18 +10650,42 @@
         <v>40104</v>
       </c>
       <c r="AB121" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC121" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>507</v>
+      </c>
+      <c r="B122" t="s">
+        <v>508</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
+        <v>483</v>
+      </c>
+      <c r="H122" t="s">
+        <v>510</v>
+      </c>
       <c r="O122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P122" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="Q122" t="s">
         <v>38</v>
@@ -10736,42 +10694,18 @@
         <v>40104</v>
       </c>
       <c r="AB122" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>511</v>
-      </c>
-      <c r="B123" t="s">
-        <v>512</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="O123" t="s">
         <v>513</v>
       </c>
-      <c r="D123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" t="s">
-        <v>68</v>
-      </c>
-      <c r="F123" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" t="s">
-        <v>487</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="P123" t="s">
         <v>514</v>
-      </c>
-      <c r="O123" t="s">
-        <v>515</v>
-      </c>
-      <c r="P123" t="s">
-        <v>516</v>
       </c>
       <c r="Q123" t="s">
         <v>38</v>
@@ -10780,41 +10714,78 @@
         <v>40104</v>
       </c>
       <c r="AB123" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC123" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>516</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s">
+        <v>518</v>
+      </c>
+      <c r="H124" t="s">
+        <v>519</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="O124" t="s">
-        <v>517</v>
+        <v>48</v>
       </c>
       <c r="P124" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Q124" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>523</v>
       </c>
       <c r="AA124">
         <v>40104</v>
       </c>
       <c r="AB124" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>517</v>
+        <v>837</v>
+      </c>
+      <c r="AC124" t="str">
+        <f t="shared" si="1"/>
+        <v>ConstantPowerFactorModeStatus</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B125" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D125" t="s">
         <v>28</v>
@@ -10826,204 +10797,192 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H125" t="s">
-        <v>523</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O125" t="s">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="P125" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="Q125" t="s">
         <v>49</v>
       </c>
       <c r="Y125" t="s">
-        <v>63</v>
+        <v>530</v>
       </c>
       <c r="Z125" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA125">
+        <v>40104</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O126" t="s">
+        <v>531</v>
+      </c>
+      <c r="P126" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA126">
+        <v>40104</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC126" t="s">
         <v>527</v>
       </c>
-      <c r="AA125">
-        <v>40104</v>
-      </c>
-      <c r="AB125" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC125" t="str">
-        <f t="shared" si="1"/>
-        <v>ConstantPowerFactorModeStatus</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    </row>
+    <row r="127" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>533</v>
+      </c>
+      <c r="B127" t="s">
+        <v>534</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>68</v>
+      </c>
+      <c r="F127" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>536</v>
+      </c>
+      <c r="H127" t="s">
+        <v>537</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O127" t="s">
         <v>528</v>
       </c>
-      <c r="B126" t="s">
+      <c r="P127" t="s">
         <v>529</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="Q127" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y127" t="s">
         <v>530</v>
       </c>
-      <c r="D126" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" t="s">
-        <v>68</v>
-      </c>
-      <c r="F126" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="Z127" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA127">
+        <v>40104</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" t="s">
         <v>522</v>
       </c>
-      <c r="H126" t="s">
-        <v>531</v>
-      </c>
-      <c r="O126" t="s">
-        <v>532</v>
-      </c>
-      <c r="P126" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>534</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA126">
-        <v>40104</v>
-      </c>
-      <c r="AB126" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O127" t="s">
-        <v>535</v>
-      </c>
-      <c r="P127" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA127">
-        <v>40104</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>537</v>
-      </c>
-      <c r="B128" t="s">
-        <v>538</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D128" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128" t="s">
-        <v>68</v>
-      </c>
-      <c r="F128" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>540</v>
-      </c>
-      <c r="H128" t="s">
-        <v>541</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="O128" t="s">
-        <v>532</v>
-      </c>
       <c r="P128" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="Q128" t="s">
         <v>49</v>
       </c>
       <c r="Y128" t="s">
-        <v>534</v>
+        <v>63</v>
       </c>
       <c r="Z128" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AA128">
         <v>40104</v>
       </c>
       <c r="AB128" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC128" t="s">
-        <v>891</v>
+        <v>537</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>541</v>
+      </c>
+      <c r="B129" t="s">
+        <v>542</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>68</v>
+      </c>
+      <c r="F129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" t="s">
+        <v>536</v>
+      </c>
+      <c r="H129" t="s">
+        <v>544</v>
+      </c>
       <c r="O129" t="s">
-        <v>526</v>
+        <v>98</v>
       </c>
       <c r="P129" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="Q129" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>544</v>
+        <v>38</v>
       </c>
       <c r="AA129">
         <v>40104</v>
       </c>
       <c r="AB129" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>541</v>
+        <v>837</v>
+      </c>
+      <c r="AC129" t="str">
+        <f t="shared" si="1"/>
+        <v>ReactivePowerPercentCMD</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B130" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
@@ -11035,40 +10994,52 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H130" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="O130" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="P130" t="s">
-        <v>549</v>
+        <v>48</v>
       </c>
       <c r="Q130" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>552</v>
       </c>
       <c r="AA130">
         <v>40104</v>
       </c>
       <c r="AB130" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC130" t="str">
-        <f t="shared" si="1"/>
-        <v>ReactivePowerPercentCMD</v>
+        <f t="shared" ref="AC130:AC174" si="2">H130</f>
+        <v>VoltageReactivePowerMode</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B131" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D131" t="s">
         <v>28</v>
@@ -11080,22 +11051,16 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H131" t="s">
-        <v>553</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O131" t="s">
         <v>48</v>
       </c>
       <c r="P131" t="s">
-        <v>48</v>
+        <v>557</v>
       </c>
       <c r="Q131" t="s">
         <v>49</v>
@@ -11104,28 +11069,28 @@
         <v>63</v>
       </c>
       <c r="Z131" t="s">
-        <v>556</v>
+        <v>63</v>
       </c>
       <c r="AA131">
         <v>40104</v>
       </c>
       <c r="AB131" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC131" t="str">
-        <f t="shared" ref="AC131:AC177" si="2">H131</f>
-        <v>VoltageReactivePowerMode</v>
+        <f t="shared" si="2"/>
+        <v>AutonomousVrefAdjustment</v>
       </c>
     </row>
     <row r="132" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
@@ -11137,46 +11102,40 @@
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H132" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O132" t="s">
-        <v>48</v>
+        <v>561</v>
       </c>
       <c r="P132" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q132" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y132" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z132" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="AA132">
         <v>40104</v>
       </c>
       <c r="AB132" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC132" t="str">
         <f t="shared" si="2"/>
-        <v>AutonomousVrefAdjustment</v>
+        <v>Verf</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B133" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
@@ -11188,16 +11147,16 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H133" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O133" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P133" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q133" t="s">
         <v>38</v>
@@ -11206,22 +11165,22 @@
         <v>40104</v>
       </c>
       <c r="AB133" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC133" t="str">
         <f t="shared" si="2"/>
-        <v>Verf</v>
+        <v>VrefAdjustmentTimeConstant</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B134" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D134" t="s">
         <v>28</v>
@@ -11233,16 +11192,16 @@
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H134" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P134" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q134" t="s">
         <v>38</v>
@@ -11251,43 +11210,18 @@
         <v>40104</v>
       </c>
       <c r="AB134" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC134" t="str">
-        <f t="shared" si="2"/>
-        <v>VrefAdjustmentTimeConstant</v>
+        <v>837</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>573</v>
-      </c>
-      <c r="B135" t="s">
-        <v>574</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="O135" t="s">
         <v>575</v>
       </c>
-      <c r="D135" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" t="s">
-        <v>68</v>
-      </c>
-      <c r="F135" t="s">
-        <v>30</v>
-      </c>
-      <c r="G135" t="s">
-        <v>553</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="P135" t="s">
         <v>576</v>
-      </c>
-      <c r="O135" t="s">
-        <v>577</v>
-      </c>
-      <c r="P135" t="s">
-        <v>578</v>
       </c>
       <c r="Q135" t="s">
         <v>38</v>
@@ -11296,18 +11230,18 @@
         <v>40104</v>
       </c>
       <c r="AB135" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC135" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="136" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O136" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P136" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q136" t="s">
         <v>38</v>
@@ -11316,18 +11250,18 @@
         <v>40104</v>
       </c>
       <c r="AB136" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC136" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O137" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P137" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q137" t="s">
         <v>38</v>
@@ -11336,18 +11270,42 @@
         <v>40104</v>
       </c>
       <c r="AB137" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC137" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>581</v>
+      </c>
+      <c r="B138" t="s">
+        <v>582</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>68</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
+        <v>549</v>
+      </c>
+      <c r="H138" t="s">
+        <v>584</v>
+      </c>
       <c r="O138" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P138" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q138" t="s">
         <v>38</v>
@@ -11356,21 +11314,22 @@
         <v>40104</v>
       </c>
       <c r="AB138" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC138" t="s">
-        <v>895</v>
+        <v>837</v>
+      </c>
+      <c r="AC138" t="str">
+        <f t="shared" si="2"/>
+        <v>Q1</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B139" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
@@ -11382,16 +11341,16 @@
         <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H139" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O139" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P139" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q139" t="s">
         <v>38</v>
@@ -11400,22 +11359,22 @@
         <v>40104</v>
       </c>
       <c r="AB139" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC139" t="str">
         <f t="shared" si="2"/>
-        <v>Q1</v>
+        <v>Q2</v>
       </c>
     </row>
     <row r="140" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B140" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D140" t="s">
         <v>28</v>
@@ -11427,16 +11386,16 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H140" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O140" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P140" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q140" t="s">
         <v>38</v>
@@ -11445,22 +11404,22 @@
         <v>40104</v>
       </c>
       <c r="AB140" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC140" t="str">
         <f t="shared" si="2"/>
-        <v>Q2</v>
+        <v>Q3</v>
       </c>
     </row>
     <row r="141" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B141" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D141" t="s">
         <v>28</v>
@@ -11472,16 +11431,16 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H141" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O141" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P141" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="s">
         <v>38</v>
@@ -11490,22 +11449,22 @@
         <v>40104</v>
       </c>
       <c r="AB141" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC141" t="str">
         <f t="shared" si="2"/>
-        <v>Q3</v>
+        <v>Q4</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B142" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
@@ -11517,16 +11476,16 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H142" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O142" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="P142" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q142" t="s">
         <v>38</v>
@@ -11535,22 +11494,21 @@
         <v>40104</v>
       </c>
       <c r="AB142" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC142" t="str">
-        <f t="shared" si="2"/>
-        <v>Q4</v>
+        <v>837</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B143" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D143" t="s">
         <v>28</v>
@@ -11562,39 +11520,52 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="H143" t="s">
-        <v>608</v>
+        <v>610</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="O143" t="s">
-        <v>571</v>
+        <v>48</v>
       </c>
       <c r="P143" t="s">
-        <v>609</v>
+        <v>48</v>
       </c>
       <c r="Q143" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>613</v>
       </c>
       <c r="AA143">
         <v>40104</v>
       </c>
       <c r="AB143" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC143" t="s">
-        <v>896</v>
+        <v>837</v>
+      </c>
+      <c r="AC143" t="str">
+        <f t="shared" si="2"/>
+        <v>PQModeStatus</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B144" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
@@ -11606,73 +11577,36 @@
         <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H144" t="s">
-        <v>614</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O144" t="s">
-        <v>48</v>
+        <v>618</v>
       </c>
       <c r="P144" t="s">
-        <v>48</v>
+        <v>619</v>
       </c>
       <c r="Q144" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y144" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z144" t="s">
-        <v>617</v>
+        <v>38</v>
       </c>
       <c r="AA144">
         <v>40104</v>
       </c>
       <c r="AB144" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC144" t="str">
-        <f t="shared" si="2"/>
-        <v>PQModeStatus</v>
+        <v>837</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="145" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>618</v>
-      </c>
-      <c r="B145" t="s">
-        <v>619</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="O145" t="s">
         <v>620</v>
       </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" t="s">
-        <v>68</v>
-      </c>
-      <c r="F145" t="s">
-        <v>30</v>
-      </c>
-      <c r="G145" t="s">
-        <v>613</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="P145" t="s">
         <v>621</v>
-      </c>
-      <c r="O145" t="s">
-        <v>622</v>
-      </c>
-      <c r="P145" t="s">
-        <v>623</v>
       </c>
       <c r="Q145" t="s">
         <v>38</v>
@@ -11681,18 +11615,18 @@
         <v>40104</v>
       </c>
       <c r="AB145" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC145" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O146" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="P146" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q146" t="s">
         <v>38</v>
@@ -11701,41 +11635,78 @@
         <v>40104</v>
       </c>
       <c r="AB146" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC146" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>624</v>
+      </c>
+      <c r="B147" t="s">
+        <v>625</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>68</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>627</v>
+      </c>
+      <c r="H147" t="s">
+        <v>627</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="O147" t="s">
-        <v>626</v>
+        <v>48</v>
       </c>
       <c r="P147" t="s">
-        <v>627</v>
+        <v>48</v>
       </c>
       <c r="Q147" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>630</v>
       </c>
       <c r="AA147">
         <v>40104</v>
       </c>
       <c r="AB147" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC147" t="s">
-        <v>899</v>
+        <v>837</v>
+      </c>
+      <c r="AC147" t="str">
+        <f t="shared" si="2"/>
+        <v>VoltageActivePowerMode</v>
       </c>
     </row>
     <row r="148" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B148" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
@@ -11747,73 +11718,36 @@
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H148" t="s">
-        <v>631</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O148" t="s">
-        <v>48</v>
+        <v>635</v>
       </c>
       <c r="P148" t="s">
-        <v>48</v>
+        <v>574</v>
       </c>
       <c r="Q148" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y148" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z148" t="s">
-        <v>634</v>
+        <v>38</v>
       </c>
       <c r="AA148">
         <v>40104</v>
       </c>
       <c r="AB148" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC148" t="str">
-        <f t="shared" si="2"/>
-        <v>VoltageActivePowerMode</v>
+        <v>837</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>635</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="O149" t="s">
         <v>636</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" t="s">
-        <v>68</v>
-      </c>
-      <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" t="s">
-        <v>631</v>
-      </c>
-      <c r="H149" t="s">
-        <v>638</v>
-      </c>
-      <c r="O149" t="s">
-        <v>639</v>
-      </c>
       <c r="P149" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Q149" t="s">
         <v>38</v>
@@ -11822,18 +11756,42 @@
         <v>40104</v>
       </c>
       <c r="AB149" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC149" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>637</v>
+      </c>
+      <c r="B150" t="s">
+        <v>638</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="150" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
+        <v>68</v>
+      </c>
+      <c r="F150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>627</v>
+      </c>
+      <c r="H150" t="s">
+        <v>640</v>
+      </c>
       <c r="O150" t="s">
         <v>640</v>
       </c>
       <c r="P150" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="Q150" t="s">
         <v>38</v>
@@ -11842,10 +11800,11 @@
         <v>40104</v>
       </c>
       <c r="AB150" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC150" t="s">
-        <v>640</v>
+        <v>837</v>
+      </c>
+      <c r="AC150" t="str">
+        <f t="shared" si="2"/>
+        <v>VoltWattP2</v>
       </c>
     </row>
     <row r="151" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11853,10 +11812,10 @@
         <v>641</v>
       </c>
       <c r="B151" t="s">
+        <v>602</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
@@ -11868,16 +11827,16 @@
         <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H151" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="O151" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="P151" t="s">
-        <v>625</v>
+        <v>895</v>
       </c>
       <c r="Q151" t="s">
         <v>38</v>
@@ -11886,22 +11845,21 @@
         <v>40104</v>
       </c>
       <c r="AB151" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC151" t="str">
-        <f t="shared" si="2"/>
-        <v>VoltWattP2</v>
+        <v>837</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="152" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>643</v>
+      </c>
+      <c r="B152" t="s">
+        <v>644</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B152" t="s">
-        <v>606</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="D152" t="s">
         <v>28</v>
@@ -11913,40 +11871,52 @@
         <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="H152" t="s">
-        <v>608</v>
+        <v>647</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="O152" t="s">
-        <v>571</v>
+        <v>48</v>
       </c>
       <c r="P152" t="s">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="Q152" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>63</v>
       </c>
       <c r="AA152">
         <v>40104</v>
       </c>
       <c r="AB152" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC152" t="str">
         <f t="shared" si="2"/>
-        <v>OpenLoopResponseTime</v>
+        <v>FrequencyActivePowerModeStatus</v>
       </c>
     </row>
     <row r="153" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B153" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
@@ -11958,52 +11928,39 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H153" t="s">
-        <v>651</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="O153" t="s">
-        <v>48</v>
+        <v>567</v>
       </c>
       <c r="P153" t="s">
-        <v>48</v>
+        <v>605</v>
       </c>
       <c r="Q153" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="AA153">
         <v>40104</v>
       </c>
       <c r="AB153" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC153" t="str">
-        <f t="shared" si="2"/>
-        <v>FrequencyActivePowerModeStatus</v>
+        <v>837</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="154" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>652</v>
+      </c>
+      <c r="B154" t="s">
+        <v>653</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B154" t="s">
-        <v>606</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
@@ -12015,39 +11972,43 @@
         <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H154" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="O154" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="P154" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="Q154" t="s">
         <v>38</v>
       </c>
+      <c r="T154" t="s">
+        <v>832</v>
+      </c>
       <c r="AA154">
         <v>40104</v>
       </c>
       <c r="AB154" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC154" t="s">
-        <v>901</v>
+        <v>837</v>
+      </c>
+      <c r="AC154" t="str">
+        <f t="shared" si="2"/>
+        <v>OverFrequencyDroop_dbOF</v>
       </c>
     </row>
     <row r="155" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B155" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
@@ -12059,43 +12020,40 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H155" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="O155" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="P155" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Q155" t="s">
         <v>38</v>
       </c>
-      <c r="T155" t="s">
-        <v>836</v>
-      </c>
       <c r="AA155">
         <v>40104</v>
       </c>
       <c r="AB155" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC155" t="str">
         <f t="shared" si="2"/>
-        <v>OverFrequencyDroop_dbOF</v>
+        <v>OverFrequencyDroop_kOF</v>
       </c>
     </row>
     <row r="156" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B156" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D156" t="s">
         <v>28</v>
@@ -12107,16 +12065,16 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H156" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O156" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="P156" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="Q156" t="s">
         <v>38</v>
@@ -12125,11 +12083,11 @@
         <v>40104</v>
       </c>
       <c r="AB156" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC156" t="str">
         <f t="shared" si="2"/>
-        <v>OverFrequencyDroop_kOF</v>
+        <v>UnderFrequencyDroop_dbUF</v>
       </c>
     </row>
     <row r="157" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12152,16 +12110,16 @@
         <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H157" t="s">
         <v>670</v>
       </c>
       <c r="O157" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="P157" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Q157" t="s">
         <v>38</v>
@@ -12170,11 +12128,11 @@
         <v>40104</v>
       </c>
       <c r="AB157" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC157" t="str">
         <f t="shared" si="2"/>
-        <v>UnderFrequencyDroop_dbUF</v>
+        <v>UnderFrequencyDroop_kUF</v>
       </c>
     </row>
     <row r="158" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12191,46 +12149,64 @@
         <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
         <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="H158" t="s">
-        <v>674</v>
+        <v>675</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="O158" t="s">
-        <v>660</v>
+        <v>48</v>
       </c>
       <c r="P158" t="s">
-        <v>666</v>
+        <v>108</v>
       </c>
       <c r="Q158" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>63</v>
       </c>
       <c r="AA158">
         <v>40104</v>
       </c>
       <c r="AB158" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC158" t="str">
         <f t="shared" si="2"/>
-        <v>UnderFrequencyDroop_kUF</v>
+        <v>OffGridOutput</v>
       </c>
     </row>
     <row r="159" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
@@ -12242,58 +12218,49 @@
         <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H159" t="s">
-        <v>679</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N159" s="1" t="s">
         <v>683</v>
       </c>
       <c r="O159" t="s">
-        <v>48</v>
+        <v>684</v>
       </c>
       <c r="P159" t="s">
-        <v>108</v>
+        <v>685</v>
       </c>
       <c r="Q159" t="s">
         <v>49</v>
       </c>
-      <c r="Y159" t="s">
-        <v>63</v>
+      <c r="T159" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y159" s="2">
+        <v>208220230240277</v>
       </c>
       <c r="Z159" t="s">
-        <v>63</v>
+        <v>686</v>
       </c>
       <c r="AA159">
         <v>40104</v>
       </c>
       <c r="AB159" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC159" t="str">
         <f t="shared" si="2"/>
-        <v>OffGridOutput</v>
+        <v>EPSVoltage</v>
       </c>
     </row>
     <row r="160" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B160" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
@@ -12305,49 +12272,58 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="H160" t="s">
-        <v>687</v>
+        <v>691</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="O160" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="P160" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="Q160" t="s">
         <v>49</v>
       </c>
-      <c r="T160" t="s">
-        <v>835</v>
-      </c>
-      <c r="Y160" s="2">
-        <v>208220230240277</v>
+      <c r="Y160" t="s">
+        <v>698</v>
       </c>
       <c r="Z160" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="AA160">
         <v>40104</v>
       </c>
       <c r="AB160" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC160" t="str">
         <f t="shared" si="2"/>
-        <v>EPSVoltage</v>
+        <v>LinkedPort</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B161" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
@@ -12359,58 +12335,40 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H161" t="s">
-        <v>695</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="O161" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="P161" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="Q161" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y161" t="s">
-        <v>702</v>
-      </c>
-      <c r="Z161" t="s">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="AA161">
         <v>40104</v>
       </c>
       <c r="AB161" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC161" t="str">
         <f t="shared" si="2"/>
-        <v>LinkedPort</v>
+        <v>BatteryChargeCurrentLimit</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B162" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -12422,40 +12380,46 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H162" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O162" t="s">
-        <v>708</v>
+        <v>98</v>
       </c>
       <c r="P162" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Q162" t="s">
         <v>38</v>
       </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>100</v>
+      </c>
       <c r="AA162">
         <v>40104</v>
       </c>
       <c r="AB162" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC162" t="str">
         <f t="shared" si="2"/>
-        <v>BatteryChargeCurrentLimit</v>
+        <v>GeneratorRatedPower</v>
       </c>
     </row>
     <row r="163" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B163" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
@@ -12467,46 +12431,40 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H163" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O163" t="s">
-        <v>98</v>
+        <v>567</v>
       </c>
       <c r="P163" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q163" t="s">
         <v>38</v>
       </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-      <c r="V163">
-        <v>100</v>
-      </c>
       <c r="AA163">
         <v>40104</v>
       </c>
       <c r="AB163" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC163" t="str">
         <f t="shared" si="2"/>
-        <v>GeneratorRatedPower</v>
+        <v>GeneratorCoolDownTime</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B164" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
@@ -12518,185 +12476,190 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H164" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O164" t="s">
-        <v>571</v>
+        <v>720</v>
       </c>
       <c r="P164" t="s">
-        <v>719</v>
+        <v>829</v>
       </c>
       <c r="Q164" t="s">
         <v>38</v>
       </c>
+      <c r="R164" t="s">
+        <v>721</v>
+      </c>
+      <c r="T164" t="s">
+        <v>826</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>90</v>
+      </c>
+      <c r="W164" t="s">
+        <v>352</v>
+      </c>
       <c r="AA164">
         <v>40104</v>
       </c>
       <c r="AB164" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC164" t="str">
-        <f t="shared" si="2"/>
-        <v>GeneratorCoolDownTime</v>
+        <v>837</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>720</v>
-      </c>
-      <c r="B165" t="s">
-        <v>721</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D165" t="s">
-        <v>28</v>
-      </c>
-      <c r="E165" t="s">
-        <v>29</v>
-      </c>
-      <c r="F165" t="s">
-        <v>30</v>
-      </c>
-      <c r="G165" t="s">
-        <v>694</v>
-      </c>
-      <c r="H165" t="s">
-        <v>723</v>
-      </c>
       <c r="O165" t="s">
-        <v>724</v>
+        <v>352</v>
       </c>
       <c r="P165" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Q165" t="s">
         <v>38</v>
       </c>
       <c r="R165" t="s">
+        <v>722</v>
+      </c>
+      <c r="T165" t="s">
+        <v>826</v>
+      </c>
+      <c r="U165">
+        <v>5</v>
+      </c>
+      <c r="V165">
+        <v>100</v>
+      </c>
+      <c r="X165" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA165">
+        <v>40104</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>837</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>723</v>
+      </c>
+      <c r="B166" t="s">
+        <v>724</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="T165" t="s">
-        <v>830</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-      <c r="V165">
-        <v>90</v>
-      </c>
-      <c r="W165" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA165">
-        <v>40104</v>
-      </c>
-      <c r="AB165" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC165" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>68</v>
+      </c>
+      <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
+        <v>690</v>
+      </c>
+      <c r="H166" t="s">
+        <v>726</v>
+      </c>
       <c r="O166" t="s">
-        <v>356</v>
+        <v>48</v>
       </c>
       <c r="P166" t="s">
-        <v>834</v>
+        <v>727</v>
       </c>
       <c r="Q166" t="s">
-        <v>38</v>
-      </c>
-      <c r="R166" t="s">
-        <v>726</v>
-      </c>
-      <c r="T166" t="s">
-        <v>830</v>
-      </c>
-      <c r="U166">
-        <v>5</v>
-      </c>
-      <c r="V166">
-        <v>100</v>
-      </c>
-      <c r="X166" t="s">
-        <v>724</v>
+        <v>49</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>729</v>
       </c>
       <c r="AA166">
-        <v>40104</v>
+        <v>40101</v>
       </c>
       <c r="AB166" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC166" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B167" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
         <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H167" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="O167" t="s">
         <v>48</v>
       </c>
       <c r="P167" t="s">
-        <v>731</v>
+        <v>108</v>
       </c>
       <c r="Q167" t="s">
         <v>49</v>
       </c>
       <c r="Y167" t="s">
-        <v>732</v>
+        <v>63</v>
       </c>
       <c r="Z167" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AA167">
         <v>40104</v>
       </c>
       <c r="AB167" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC167" t="str">
         <f t="shared" si="2"/>
-        <v>GenDryContact</v>
+        <v>StartGeneratorExercise</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B168" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
@@ -12708,10 +12671,10 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H168" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O168" t="s">
         <v>48</v>
@@ -12726,17 +12689,17 @@
         <v>63</v>
       </c>
       <c r="Z168" t="s">
-        <v>738</v>
+        <v>63</v>
       </c>
       <c r="AA168">
         <v>40104</v>
       </c>
       <c r="AB168" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC168" t="str">
         <f t="shared" si="2"/>
-        <v>StartGeneratorExercise</v>
+        <v>GeneratorBoost</v>
       </c>
     </row>
     <row r="169" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12759,16 +12722,28 @@
         <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="H169" t="s">
         <v>742</v>
       </c>
+      <c r="K169" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="O169" t="s">
         <v>48</v>
       </c>
       <c r="P169" t="s">
-        <v>108</v>
+        <v>747</v>
       </c>
       <c r="Q169" t="s">
         <v>49</v>
@@ -12783,22 +12758,22 @@
         <v>40104</v>
       </c>
       <c r="AB169" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC169" t="str">
         <f t="shared" si="2"/>
-        <v>GeneratorBoost</v>
+        <v>ACCoupledPV</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B170" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
@@ -12810,88 +12785,60 @@
         <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H170" t="s">
-        <v>746</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O170" t="s">
-        <v>48</v>
+        <v>720</v>
       </c>
       <c r="P170" t="s">
-        <v>751</v>
+        <v>829</v>
       </c>
       <c r="Q170" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y170" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z170" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="R170" t="s">
+        <v>752</v>
+      </c>
+      <c r="T170" t="s">
+        <v>826</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>100</v>
+      </c>
+      <c r="W170" t="s">
+        <v>352</v>
       </c>
       <c r="AA170">
         <v>40104</v>
       </c>
       <c r="AB170" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC170" t="str">
-        <f t="shared" si="2"/>
-        <v>ACCoupledPV</v>
+        <v>837</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>752</v>
-      </c>
-      <c r="B171" t="s">
-        <v>753</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D171" t="s">
-        <v>28</v>
-      </c>
-      <c r="E171" t="s">
-        <v>29</v>
-      </c>
-      <c r="F171" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>746</v>
-      </c>
-      <c r="H171" t="s">
-        <v>755</v>
-      </c>
       <c r="O171" t="s">
-        <v>724</v>
+        <v>352</v>
       </c>
       <c r="P171" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Q171" t="s">
         <v>38</v>
       </c>
       <c r="R171" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="T171" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="U171">
         <v>0</v>
@@ -12899,63 +12846,88 @@
       <c r="V171">
         <v>100</v>
       </c>
-      <c r="W171" t="s">
-        <v>356</v>
+      <c r="X171" t="s">
+        <v>720</v>
       </c>
       <c r="AA171">
         <v>40104</v>
       </c>
       <c r="AB171" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC171" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>754</v>
+      </c>
+      <c r="B172" t="s">
+        <v>755</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>757</v>
+      </c>
+      <c r="H172" t="s">
+        <v>758</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="O172" t="s">
-        <v>356</v>
-      </c>
-      <c r="P172" t="s">
-        <v>834</v>
+        <v>48</v>
       </c>
       <c r="Q172" t="s">
-        <v>38</v>
-      </c>
-      <c r="R172" t="s">
-        <v>757</v>
-      </c>
-      <c r="T172" t="s">
-        <v>830</v>
-      </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-      <c r="V172">
-        <v>100</v>
-      </c>
-      <c r="X172" t="s">
-        <v>724</v>
+        <v>49</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>763</v>
       </c>
       <c r="AA172">
         <v>40104</v>
       </c>
       <c r="AB172" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC172" t="s">
-        <v>905</v>
+        <v>837</v>
+      </c>
+      <c r="AC172" t="str">
+        <f t="shared" si="2"/>
+        <v>SmartLoad</v>
       </c>
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B173" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
@@ -12967,26 +12939,17 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H173" t="s">
-        <v>762</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O173" t="s">
         <v>48</v>
       </c>
+      <c r="P173" t="s">
+        <v>768</v>
+      </c>
       <c r="Q173" t="s">
         <v>49</v>
       </c>
@@ -12994,28 +12957,28 @@
         <v>63</v>
       </c>
       <c r="Z173" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AA173">
         <v>40104</v>
       </c>
       <c r="AB173" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC173" t="str">
         <f t="shared" si="2"/>
-        <v>SmartLoad</v>
+        <v>OnGridAlwaysOn</v>
       </c>
     </row>
     <row r="174" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B174" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
@@ -13027,46 +12990,46 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H174" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O174" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="P174" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="Q174" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y174" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z174" t="s">
-        <v>773</v>
+        <v>38</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>100</v>
       </c>
       <c r="AA174">
         <v>40104</v>
       </c>
       <c r="AB174" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC174" t="str">
         <f t="shared" si="2"/>
-        <v>OnGridAlwaysOn</v>
+        <v>StartPVPower</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B175" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
@@ -13078,16 +13041,16 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H175" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O175" t="s">
-        <v>98</v>
+        <v>779</v>
       </c>
       <c r="P175" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="Q175" t="s">
         <v>38</v>
@@ -13098,47 +13061,25 @@
       <c r="V175">
         <v>100</v>
       </c>
+      <c r="W175" t="s">
+        <v>781</v>
+      </c>
       <c r="AA175">
         <v>40104</v>
       </c>
       <c r="AB175" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC175" t="str">
-        <f t="shared" si="2"/>
-        <v>StartPVPower</v>
+        <v>837</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>779</v>
-      </c>
-      <c r="B176" t="s">
-        <v>780</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="O176" t="s">
         <v>781</v>
       </c>
-      <c r="D176" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" t="s">
-        <v>29</v>
-      </c>
-      <c r="F176" t="s">
-        <v>30</v>
-      </c>
-      <c r="G176" t="s">
-        <v>761</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="P176" t="s">
         <v>782</v>
-      </c>
-      <c r="O176" t="s">
-        <v>783</v>
-      </c>
-      <c r="P176" t="s">
-        <v>784</v>
       </c>
       <c r="Q176" t="s">
         <v>38</v>
@@ -13149,46 +13090,17 @@
       <c r="V176">
         <v>100</v>
       </c>
-      <c r="W176" t="s">
-        <v>785</v>
+      <c r="X176" t="s">
+        <v>779</v>
       </c>
       <c r="AA176">
         <v>40104</v>
       </c>
       <c r="AB176" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AC176" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="177" spans="15:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O177" t="s">
-        <v>785</v>
-      </c>
-      <c r="P177" t="s">
-        <v>786</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>38</v>
-      </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-      <c r="V177">
-        <v>100</v>
-      </c>
-      <c r="X177" t="s">
-        <v>783</v>
-      </c>
-      <c r="AA177">
-        <v>40104</v>
-      </c>
-      <c r="AB177" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC177" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/matter.xlsx
+++ b/matter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamGathright\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F3618D-1F33-45BE-A9F3-C14A52BC11C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD477E-4224-452A-9D0C-197785A21B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="10545" activeTab="1" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
   </bookViews>
@@ -839,9 +839,6 @@
     <t>Detected Grid Phases</t>
   </si>
   <si>
-    <t>Attribute in Parallel cluster</t>
-  </si>
-  <si>
     <t>DetectedGridPhases</t>
   </si>
   <si>
@@ -4525,6 +4522,9 @@
   </si>
   <si>
     <t>genDryContactState</t>
+  </si>
+  <si>
+    <t>The output phase this inverter is responsible for in a three-phase system. R, S, and T correspond to L1, L2, and L3.</t>
   </si>
 </sst>
 </file>
@@ -5417,13 +5417,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,10 +5442,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5453,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5464,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,10 +5475,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,10 +5486,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5497,10 +5497,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,10 +5508,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5519,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5530,10 +5530,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,10 +5541,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,10 +5552,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,10 +5563,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5574,10 +5574,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5596,10 +5596,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5607,10 +5607,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5618,10 +5618,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5629,10 +5629,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5640,10 +5640,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -5656,8 +5656,8 @@
   <dimension ref="A1:AD176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5751,16 +5751,16 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB1" t="s">
         <v>834</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>835</v>
       </c>
-      <c r="AC1" t="s">
-        <v>836</v>
-      </c>
       <c r="AD1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5771,7 +5771,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -5819,7 +5819,7 @@
         <v>40104</v>
       </c>
       <c r="AB2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC2" t="s">
         <v>37</v>
@@ -5845,10 +5845,10 @@
         <v>40104</v>
       </c>
       <c r="AB3" t="s">
+        <v>836</v>
+      </c>
+      <c r="AC3" t="s">
         <v>837</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5871,7 +5871,7 @@
         <v>40104</v>
       </c>
       <c r="AB4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC4" t="s">
         <v>40</v>
@@ -5897,7 +5897,7 @@
         <v>40104</v>
       </c>
       <c r="AB5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC5" t="s">
         <v>41</v>
@@ -5923,10 +5923,10 @@
         <v>40104</v>
       </c>
       <c r="AB6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,10 +5949,10 @@
         <v>40104</v>
       </c>
       <c r="AB7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>40104</v>
       </c>
       <c r="AB8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" ref="AC8:AC44" si="0">H8</f>
@@ -6050,7 +6050,7 @@
         <v>40104</v>
       </c>
       <c r="AB9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="0"/>
@@ -6142,7 +6142,7 @@
         <v>40104</v>
       </c>
       <c r="AB11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC11" t="s">
         <v>82</v>
@@ -6265,7 +6265,7 @@
         <v>40104</v>
       </c>
       <c r="AB14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="0"/>
@@ -6307,7 +6307,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>40104</v>
       </c>
       <c r="AB15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="0"/>
@@ -6382,7 +6382,7 @@
         <v>40104</v>
       </c>
       <c r="AB16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="0"/>
@@ -6424,7 +6424,7 @@
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>40104</v>
       </c>
       <c r="AB17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="0"/>
@@ -6466,7 +6466,7 @@
         <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
@@ -6487,7 +6487,7 @@
         <v>40104</v>
       </c>
       <c r="AB18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="0"/>
@@ -6529,7 +6529,7 @@
         <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>40104</v>
       </c>
       <c r="AB19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="0"/>
@@ -6604,7 +6604,7 @@
         <v>40104</v>
       </c>
       <c r="AB20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="0"/>
@@ -6655,7 +6655,7 @@
         <v>40104</v>
       </c>
       <c r="AB21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="0"/>
@@ -6706,7 +6706,7 @@
         <v>40104</v>
       </c>
       <c r="AB22" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="0"/>
@@ -6762,7 +6762,7 @@
         <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>906</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -6777,7 +6777,7 @@
         <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O24" t="s">
         <v>149</v>
@@ -6789,30 +6789,30 @@
         <v>49</v>
       </c>
       <c r="Y24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA24">
         <v>40104</v>
       </c>
       <c r="AB24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
         <v>162</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -6827,13 +6827,13 @@
         <v>129</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q25" t="s">
         <v>49</v>
@@ -6842,13 +6842,13 @@
         <v>63</v>
       </c>
       <c r="Z25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA25">
         <v>40104</v>
       </c>
       <c r="AB25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="0"/>
@@ -6857,13 +6857,13 @@
     </row>
     <row r="26" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
         <v>168</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -6878,13 +6878,13 @@
         <v>129</v>
       </c>
       <c r="H26" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26" t="s">
         <v>171</v>
       </c>
-      <c r="O26" t="s">
-        <v>172</v>
-      </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q26" t="s">
         <v>38</v>
@@ -6893,7 +6893,7 @@
         <v>40104</v>
       </c>
       <c r="AB26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC26" t="str">
         <f t="shared" si="0"/>
@@ -6902,13 +6902,13 @@
     </row>
     <row r="27" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -6923,28 +6923,28 @@
         <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q27" t="s">
         <v>49</v>
       </c>
       <c r="Y27" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z27" t="s">
         <v>177</v>
       </c>
-      <c r="Z27" t="s">
-        <v>178</v>
-      </c>
       <c r="AA27">
         <v>40104</v>
       </c>
       <c r="AB27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="0"/>
@@ -6953,13 +6953,13 @@
     </row>
     <row r="28" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -6974,7 +6974,7 @@
         <v>129</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O28" t="s">
         <v>149</v>
@@ -6995,7 +6995,7 @@
         <v>40104</v>
       </c>
       <c r="AB28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC28" t="str">
         <f t="shared" si="0"/>
@@ -7004,13 +7004,13 @@
     </row>
     <row r="29" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
         <v>183</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -7022,43 +7022,43 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" t="s">
         <v>186</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" t="s">
         <v>191</v>
       </c>
-      <c r="O29" t="s">
-        <v>192</v>
-      </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q29" t="s">
         <v>49</v>
       </c>
       <c r="Y29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA29">
         <v>40104</v>
       </c>
       <c r="AB29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="0"/>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="30" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -7085,31 +7085,31 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q30" t="s">
         <v>49</v>
       </c>
       <c r="Y30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA30">
         <v>40104</v>
       </c>
       <c r="AB30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC30" t="str">
         <f t="shared" si="0"/>
@@ -7118,13 +7118,13 @@
     </row>
     <row r="31" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
         <v>199</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -7136,22 +7136,22 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" t="s">
         <v>202</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="O31" t="s">
         <v>141</v>
@@ -7163,16 +7163,16 @@
         <v>49</v>
       </c>
       <c r="Y31" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z31" t="s">
         <v>208</v>
       </c>
-      <c r="Z31" t="s">
-        <v>209</v>
-      </c>
       <c r="AA31">
         <v>40104</v>
       </c>
       <c r="AB31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="0"/>
@@ -7181,13 +7181,13 @@
     </row>
     <row r="32" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
         <v>210</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -7199,31 +7199,31 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" t="s">
         <v>213</v>
       </c>
-      <c r="O32" t="s">
-        <v>214</v>
-      </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q32" t="s">
         <v>49</v>
       </c>
       <c r="Y32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA32">
         <v>40104</v>
       </c>
       <c r="AB32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="0"/>
@@ -7232,13 +7232,13 @@
     </row>
     <row r="33" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s">
         <v>216</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -7250,28 +7250,28 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H33" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" t="s">
         <v>219</v>
       </c>
-      <c r="O33" t="s">
-        <v>220</v>
-      </c>
       <c r="P33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q33" t="s">
         <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AA33">
         <v>40104</v>
       </c>
       <c r="AB33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="0"/>
@@ -7280,13 +7280,13 @@
     </row>
     <row r="34" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" t="s">
         <v>221</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -7298,28 +7298,28 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q34" t="s">
         <v>38</v>
       </c>
       <c r="T34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AA34">
         <v>40104</v>
       </c>
       <c r="AB34" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="0"/>
@@ -7328,13 +7328,13 @@
     </row>
     <row r="35" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
         <v>225</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -7346,28 +7346,28 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q35" t="s">
         <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AA35">
         <v>40104</v>
       </c>
       <c r="AB35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="0"/>
@@ -7376,13 +7376,13 @@
     </row>
     <row r="36" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s">
         <v>229</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -7394,31 +7394,31 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
         <v>232</v>
       </c>
-      <c r="O36" t="s">
-        <v>233</v>
-      </c>
       <c r="P36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q36" t="s">
         <v>49</v>
       </c>
       <c r="Y36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AA36">
         <v>40104</v>
       </c>
       <c r="AB36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC36" t="str">
         <f>H36</f>
@@ -7427,13 +7427,13 @@
     </row>
     <row r="37" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" t="s">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -7445,10 +7445,10 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37" t="s">
         <v>125</v>
@@ -7460,7 +7460,7 @@
         <v>38</v>
       </c>
       <c r="T37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -7472,7 +7472,7 @@
         <v>40104</v>
       </c>
       <c r="AB37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="0"/>
@@ -7481,13 +7481,13 @@
     </row>
     <row r="38" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -7499,71 +7499,71 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
+        <v>241</v>
+      </c>
+      <c r="O38" t="s">
         <v>242</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>243</v>
-      </c>
-      <c r="P38" t="s">
-        <v>244</v>
       </c>
       <c r="Q38" t="s">
         <v>49</v>
       </c>
       <c r="Y38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA38">
         <v>40104</v>
       </c>
       <c r="AB38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
+        <v>245</v>
+      </c>
+      <c r="P39" t="s">
         <v>246</v>
-      </c>
-      <c r="P39" t="s">
-        <v>247</v>
       </c>
       <c r="Q39" t="s">
         <v>49</v>
       </c>
       <c r="Y39" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA39">
+        <v>40104</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>836</v>
+      </c>
+      <c r="AC39" t="s">
         <v>245</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA39">
-        <v>40104</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>837</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" t="s">
         <v>248</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -7575,10 +7575,10 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O40" t="s">
         <v>125</v>
@@ -7590,10 +7590,10 @@
         <v>38</v>
       </c>
       <c r="R40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>40104</v>
       </c>
       <c r="AB40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC40" t="str">
         <f t="shared" si="0"/>
@@ -7614,13 +7614,13 @@
     </row>
     <row r="41" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
         <v>253</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -7632,10 +7632,10 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O41" t="s">
         <v>125</v>
@@ -7647,10 +7647,10 @@
         <v>38</v>
       </c>
       <c r="R41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T41" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>40104</v>
       </c>
       <c r="AB41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC41" t="str">
         <f t="shared" si="0"/>
@@ -7671,13 +7671,13 @@
     </row>
     <row r="42" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" t="s">
         <v>258</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -7689,22 +7689,22 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42" t="s">
         <v>261</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="O42" t="s">
         <v>48</v>
@@ -7719,18 +7719,18 @@
         <v>63</v>
       </c>
       <c r="Z42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" t="s">
         <v>268</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O43" t="s">
         <v>125</v>
@@ -7757,7 +7757,7 @@
         <v>38</v>
       </c>
       <c r="T43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -7768,13 +7768,13 @@
     </row>
     <row r="44" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" t="s">
         <v>272</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
@@ -7786,28 +7786,28 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44" t="s">
+        <v>274</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H44" t="s">
-        <v>275</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="O44" t="s">
         <v>48</v>
       </c>
       <c r="P44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q44" t="s">
         <v>49</v>
@@ -7816,13 +7816,13 @@
         <v>63</v>
       </c>
       <c r="Z44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA44">
         <v>40104</v>
       </c>
       <c r="AB44" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC44" t="str">
         <f t="shared" si="0"/>
@@ -7831,13 +7831,13 @@
     </row>
     <row r="45" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
         <v>282</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
@@ -7849,22 +7849,22 @@
         <v>30</v>
       </c>
       <c r="G45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" t="s">
         <v>285</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="O45" t="s">
         <v>98</v>
@@ -7876,10 +7876,10 @@
         <v>38</v>
       </c>
       <c r="R45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T45" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -7891,21 +7891,21 @@
         <v>40104</v>
       </c>
       <c r="AB45" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" t="s">
         <v>292</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
@@ -7917,16 +7917,16 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H46" t="s">
+        <v>294</v>
+      </c>
+      <c r="O46" t="s">
         <v>295</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>296</v>
-      </c>
-      <c r="P46" t="s">
-        <v>297</v>
       </c>
       <c r="Q46" t="s">
         <v>38</v>
@@ -7941,10 +7941,10 @@
         <v>40104</v>
       </c>
       <c r="AB46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AD46" t="s">
         <v>41</v>
@@ -7952,10 +7952,10 @@
     </row>
     <row r="47" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O47" t="s">
+        <v>297</v>
+      </c>
+      <c r="P47" t="s">
         <v>298</v>
-      </c>
-      <c r="P47" t="s">
-        <v>299</v>
       </c>
       <c r="Q47" t="s">
         <v>38</v>
@@ -7970,21 +7970,21 @@
         <v>40104</v>
       </c>
       <c r="AB47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC47" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AD47" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
+        <v>299</v>
+      </c>
+      <c r="P48" t="s">
         <v>300</v>
-      </c>
-      <c r="P48" t="s">
-        <v>301</v>
       </c>
       <c r="Q48" t="s">
         <v>38</v>
@@ -7999,10 +7999,10 @@
         <v>40104</v>
       </c>
       <c r="AB48" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AD48" t="s">
         <v>41</v>
@@ -8010,10 +8010,10 @@
     </row>
     <row r="49" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O49" t="s">
+        <v>301</v>
+      </c>
+      <c r="P49" t="s">
         <v>302</v>
-      </c>
-      <c r="P49" t="s">
-        <v>303</v>
       </c>
       <c r="Q49" t="s">
         <v>38</v>
@@ -8028,24 +8028,24 @@
         <v>40104</v>
       </c>
       <c r="AB49" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AD49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" t="s">
         <v>304</v>
       </c>
-      <c r="B50" t="s">
-        <v>305</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -8057,16 +8057,16 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O50" t="s">
+        <v>295</v>
+      </c>
+      <c r="P50" t="s">
         <v>296</v>
-      </c>
-      <c r="P50" t="s">
-        <v>297</v>
       </c>
       <c r="Q50" t="s">
         <v>38</v>
@@ -8081,10 +8081,10 @@
         <v>40104</v>
       </c>
       <c r="AB50" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC50" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AD50" t="s">
         <v>41</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="51" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O51" t="s">
+        <v>297</v>
+      </c>
+      <c r="P51" t="s">
         <v>298</v>
-      </c>
-      <c r="P51" t="s">
-        <v>299</v>
       </c>
       <c r="Q51" t="s">
         <v>38</v>
@@ -8110,21 +8110,21 @@
         <v>40104</v>
       </c>
       <c r="AB51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC51" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AD51" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O52" t="s">
+        <v>299</v>
+      </c>
+      <c r="P52" t="s">
         <v>300</v>
-      </c>
-      <c r="P52" t="s">
-        <v>301</v>
       </c>
       <c r="Q52" t="s">
         <v>38</v>
@@ -8139,10 +8139,10 @@
         <v>40104</v>
       </c>
       <c r="AB52" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC52" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AD52" t="s">
         <v>41</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="53" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O53" t="s">
+        <v>301</v>
+      </c>
+      <c r="P53" t="s">
         <v>302</v>
-      </c>
-      <c r="P53" t="s">
-        <v>303</v>
       </c>
       <c r="Q53" t="s">
         <v>38</v>
@@ -8168,24 +8168,24 @@
         <v>40104</v>
       </c>
       <c r="AB53" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC53" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AD53" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
         <v>307</v>
       </c>
-      <c r="B54" t="s">
-        <v>308</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -8197,16 +8197,16 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O54" t="s">
+        <v>295</v>
+      </c>
+      <c r="P54" t="s">
         <v>296</v>
-      </c>
-      <c r="P54" t="s">
-        <v>297</v>
       </c>
       <c r="Q54" t="s">
         <v>38</v>
@@ -8221,10 +8221,10 @@
         <v>40104</v>
       </c>
       <c r="AB54" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC54" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AD54" t="s">
         <v>41</v>
@@ -8232,10 +8232,10 @@
     </row>
     <row r="55" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
+        <v>297</v>
+      </c>
+      <c r="P55" t="s">
         <v>298</v>
-      </c>
-      <c r="P55" t="s">
-        <v>299</v>
       </c>
       <c r="Q55" t="s">
         <v>38</v>
@@ -8250,21 +8250,21 @@
         <v>40104</v>
       </c>
       <c r="AB55" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC55" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AD55" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
+        <v>299</v>
+      </c>
+      <c r="P56" t="s">
         <v>300</v>
-      </c>
-      <c r="P56" t="s">
-        <v>301</v>
       </c>
       <c r="Q56" t="s">
         <v>38</v>
@@ -8279,10 +8279,10 @@
         <v>40104</v>
       </c>
       <c r="AB56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC56" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD56" t="s">
         <v>41</v>
@@ -8290,10 +8290,10 @@
     </row>
     <row r="57" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
+        <v>301</v>
+      </c>
+      <c r="P57" t="s">
         <v>302</v>
-      </c>
-      <c r="P57" t="s">
-        <v>303</v>
       </c>
       <c r="Q57" t="s">
         <v>38</v>
@@ -8308,24 +8308,24 @@
         <v>40104</v>
       </c>
       <c r="AB57" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC57" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD57" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s">
         <v>310</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
@@ -8337,22 +8337,22 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
+        <v>312</v>
+      </c>
+      <c r="H58" t="s">
         <v>313</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K58" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="O58" t="s">
         <v>98</v>
@@ -8364,7 +8364,7 @@
         <v>38</v>
       </c>
       <c r="R58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -8376,21 +8376,21 @@
         <v>40104</v>
       </c>
       <c r="AB58" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC58" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
         <v>319</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
@@ -8402,10 +8402,10 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O59" t="s">
         <v>125</v>
@@ -8417,7 +8417,7 @@
         <v>38</v>
       </c>
       <c r="T59" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -8429,21 +8429,21 @@
         <v>40104</v>
       </c>
       <c r="AB59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC59" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" t="s">
         <v>323</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
@@ -8455,16 +8455,16 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O60" t="s">
+        <v>295</v>
+      </c>
+      <c r="P60" t="s">
         <v>296</v>
-      </c>
-      <c r="P60" t="s">
-        <v>297</v>
       </c>
       <c r="Q60" t="s">
         <v>38</v>
@@ -8479,10 +8479,10 @@
         <v>40104</v>
       </c>
       <c r="AB60" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC60" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AD60" t="s">
         <v>41</v>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="61" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O61" t="s">
+        <v>297</v>
+      </c>
+      <c r="P61" t="s">
         <v>298</v>
-      </c>
-      <c r="P61" t="s">
-        <v>299</v>
       </c>
       <c r="Q61" t="s">
         <v>38</v>
@@ -8508,21 +8508,21 @@
         <v>40104</v>
       </c>
       <c r="AB61" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC61" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AD61" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
+        <v>299</v>
+      </c>
+      <c r="P62" t="s">
         <v>300</v>
-      </c>
-      <c r="P62" t="s">
-        <v>301</v>
       </c>
       <c r="Q62" t="s">
         <v>38</v>
@@ -8537,10 +8537,10 @@
         <v>40104</v>
       </c>
       <c r="AB62" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC62" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AD62" t="s">
         <v>41</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="63" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O63" t="s">
+        <v>301</v>
+      </c>
+      <c r="P63" t="s">
         <v>302</v>
-      </c>
-      <c r="P63" t="s">
-        <v>303</v>
       </c>
       <c r="Q63" t="s">
         <v>38</v>
@@ -8566,24 +8566,24 @@
         <v>40104</v>
       </c>
       <c r="AB63" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC63" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AD63" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" t="s">
         <v>327</v>
       </c>
-      <c r="B64" t="s">
-        <v>328</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D64" t="s">
         <v>28</v>
@@ -8595,16 +8595,16 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O64" t="s">
+        <v>295</v>
+      </c>
+      <c r="P64" t="s">
         <v>296</v>
-      </c>
-      <c r="P64" t="s">
-        <v>297</v>
       </c>
       <c r="Q64" t="s">
         <v>38</v>
@@ -8619,10 +8619,10 @@
         <v>40104</v>
       </c>
       <c r="AB64" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC64" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AD64" t="s">
         <v>41</v>
@@ -8630,10 +8630,10 @@
     </row>
     <row r="65" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O65" t="s">
+        <v>297</v>
+      </c>
+      <c r="P65" t="s">
         <v>298</v>
-      </c>
-      <c r="P65" t="s">
-        <v>299</v>
       </c>
       <c r="Q65" t="s">
         <v>38</v>
@@ -8648,21 +8648,21 @@
         <v>40104</v>
       </c>
       <c r="AB65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AD65" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O66" t="s">
+        <v>299</v>
+      </c>
+      <c r="P66" t="s">
         <v>300</v>
-      </c>
-      <c r="P66" t="s">
-        <v>301</v>
       </c>
       <c r="Q66" t="s">
         <v>38</v>
@@ -8677,10 +8677,10 @@
         <v>40104</v>
       </c>
       <c r="AB66" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AD66" t="s">
         <v>41</v>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="67" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O67" t="s">
+        <v>301</v>
+      </c>
+      <c r="P67" t="s">
         <v>302</v>
-      </c>
-      <c r="P67" t="s">
-        <v>303</v>
       </c>
       <c r="Q67" t="s">
         <v>38</v>
@@ -8706,24 +8706,24 @@
         <v>40104</v>
       </c>
       <c r="AB67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC67" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AD67" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" t="s">
         <v>330</v>
       </c>
-      <c r="B68" t="s">
-        <v>331</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
@@ -8735,16 +8735,16 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O68" t="s">
+        <v>295</v>
+      </c>
+      <c r="P68" t="s">
         <v>296</v>
-      </c>
-      <c r="P68" t="s">
-        <v>297</v>
       </c>
       <c r="Q68" t="s">
         <v>38</v>
@@ -8759,10 +8759,10 @@
         <v>40104</v>
       </c>
       <c r="AB68" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC68" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AD68" t="s">
         <v>41</v>
@@ -8770,10 +8770,10 @@
     </row>
     <row r="69" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O69" t="s">
+        <v>297</v>
+      </c>
+      <c r="P69" t="s">
         <v>298</v>
-      </c>
-      <c r="P69" t="s">
-        <v>299</v>
       </c>
       <c r="Q69" t="s">
         <v>38</v>
@@ -8788,21 +8788,21 @@
         <v>40104</v>
       </c>
       <c r="AB69" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AD69" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O70" t="s">
+        <v>299</v>
+      </c>
+      <c r="P70" t="s">
         <v>300</v>
-      </c>
-      <c r="P70" t="s">
-        <v>301</v>
       </c>
       <c r="Q70" t="s">
         <v>38</v>
@@ -8817,10 +8817,10 @@
         <v>40104</v>
       </c>
       <c r="AB70" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC70" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AD70" t="s">
         <v>41</v>
@@ -8828,10 +8828,10 @@
     </row>
     <row r="71" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O71" t="s">
+        <v>301</v>
+      </c>
+      <c r="P71" t="s">
         <v>302</v>
-      </c>
-      <c r="P71" t="s">
-        <v>303</v>
       </c>
       <c r="Q71" t="s">
         <v>38</v>
@@ -8846,24 +8846,24 @@
         <v>40104</v>
       </c>
       <c r="AB71" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC71" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AD71" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" t="s">
         <v>333</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
@@ -8878,25 +8878,25 @@
         <v>123</v>
       </c>
       <c r="H72" t="s">
+        <v>335</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="O72" t="s">
         <v>48</v>
       </c>
       <c r="P72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q72" t="s">
         <v>49</v>
@@ -8905,13 +8905,13 @@
         <v>63</v>
       </c>
       <c r="Z72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA72">
         <v>40104</v>
       </c>
       <c r="AB72" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" ref="AC72:AC129" si="1">H72</f>
@@ -8920,13 +8920,13 @@
     </row>
     <row r="73" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" t="s">
         <v>343</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
@@ -8941,13 +8941,13 @@
         <v>123</v>
       </c>
       <c r="H73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O73" t="s">
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q73" t="s">
         <v>38</v>
@@ -8962,7 +8962,7 @@
         <v>40104</v>
       </c>
       <c r="AB73" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC73" t="str">
         <f t="shared" si="1"/>
@@ -8971,13 +8971,13 @@
     </row>
     <row r="74" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" t="s">
         <v>348</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
@@ -8992,13 +8992,13 @@
         <v>123</v>
       </c>
       <c r="H74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O74" t="s">
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q74" t="s">
         <v>38</v>
@@ -9010,13 +9010,13 @@
         <v>100</v>
       </c>
       <c r="W74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA74">
         <v>40104</v>
       </c>
       <c r="AB74" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC74" t="str">
         <f t="shared" si="1"/>
@@ -9025,16 +9025,16 @@
     </row>
     <row r="75" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P75" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q75" t="s">
         <v>38</v>
       </c>
       <c r="T75" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>40104</v>
       </c>
       <c r="AB75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC75" t="s">
         <v>124</v>
@@ -9057,13 +9057,13 @@
     </row>
     <row r="76" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" t="s">
         <v>353</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
@@ -9078,31 +9078,31 @@
         <v>123</v>
       </c>
       <c r="H76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O76" t="s">
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q76" t="s">
         <v>49</v>
       </c>
       <c r="T76" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Y76" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z76" t="s">
         <v>358</v>
       </c>
-      <c r="Z76" t="s">
-        <v>359</v>
-      </c>
       <c r="AA76">
         <v>40104</v>
       </c>
       <c r="AB76" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC76" t="str">
         <f t="shared" si="1"/>
@@ -9111,13 +9111,13 @@
     </row>
     <row r="77" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>359</v>
+      </c>
+      <c r="B77" t="s">
         <v>360</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
@@ -9132,13 +9132,13 @@
         <v>123</v>
       </c>
       <c r="H77" t="s">
+        <v>362</v>
+      </c>
+      <c r="O77" t="s">
         <v>363</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>364</v>
-      </c>
-      <c r="P77" t="s">
-        <v>365</v>
       </c>
       <c r="Q77" t="s">
         <v>38</v>
@@ -9153,10 +9153,10 @@
         <v>40104</v>
       </c>
       <c r="AB77" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC77" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AD77" t="s">
         <v>41</v>
@@ -9164,10 +9164,10 @@
     </row>
     <row r="78" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O78" t="s">
+        <v>365</v>
+      </c>
+      <c r="P78" t="s">
         <v>366</v>
-      </c>
-      <c r="P78" t="s">
-        <v>367</v>
       </c>
       <c r="Q78" t="s">
         <v>38</v>
@@ -9182,21 +9182,21 @@
         <v>40104</v>
       </c>
       <c r="AB78" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC78" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AD78" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O79" t="s">
+        <v>367</v>
+      </c>
+      <c r="P79" t="s">
         <v>368</v>
-      </c>
-      <c r="P79" t="s">
-        <v>369</v>
       </c>
       <c r="Q79" t="s">
         <v>38</v>
@@ -9211,10 +9211,10 @@
         <v>40104</v>
       </c>
       <c r="AB79" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC79" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AD79" t="s">
         <v>41</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="80" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
+        <v>369</v>
+      </c>
+      <c r="P80" t="s">
         <v>370</v>
-      </c>
-      <c r="P80" t="s">
-        <v>371</v>
       </c>
       <c r="Q80" t="s">
         <v>38</v>
@@ -9240,21 +9240,21 @@
         <v>40104</v>
       </c>
       <c r="AB80" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC80" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AD80" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O81" t="s">
+        <v>371</v>
+      </c>
+      <c r="P81" t="s">
         <v>372</v>
-      </c>
-      <c r="P81" t="s">
-        <v>373</v>
       </c>
       <c r="Q81" t="s">
         <v>38</v>
@@ -9269,10 +9269,10 @@
         <v>40104</v>
       </c>
       <c r="AB81" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC81" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AD81" t="s">
         <v>41</v>
@@ -9280,10 +9280,10 @@
     </row>
     <row r="82" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O82" t="s">
+        <v>373</v>
+      </c>
+      <c r="P82" t="s">
         <v>374</v>
-      </c>
-      <c r="P82" t="s">
-        <v>375</v>
       </c>
       <c r="Q82" t="s">
         <v>38</v>
@@ -9298,21 +9298,21 @@
         <v>40104</v>
       </c>
       <c r="AB82" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC82" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AD82" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O83" t="s">
+        <v>375</v>
+      </c>
+      <c r="P83" t="s">
         <v>376</v>
-      </c>
-      <c r="P83" t="s">
-        <v>377</v>
       </c>
       <c r="Q83" t="s">
         <v>38</v>
@@ -9327,10 +9327,10 @@
         <v>40104</v>
       </c>
       <c r="AB83" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC83" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AD83" t="s">
         <v>41</v>
@@ -9338,10 +9338,10 @@
     </row>
     <row r="84" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O84" t="s">
+        <v>377</v>
+      </c>
+      <c r="P84" t="s">
         <v>378</v>
-      </c>
-      <c r="P84" t="s">
-        <v>379</v>
       </c>
       <c r="Q84" t="s">
         <v>38</v>
@@ -9356,21 +9356,21 @@
         <v>40104</v>
       </c>
       <c r="AB84" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC84" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AD84" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O85" t="s">
+        <v>379</v>
+      </c>
+      <c r="P85" t="s">
         <v>380</v>
-      </c>
-      <c r="P85" t="s">
-        <v>381</v>
       </c>
       <c r="Q85" t="s">
         <v>38</v>
@@ -9385,10 +9385,10 @@
         <v>40104</v>
       </c>
       <c r="AB85" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC85" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD85" t="s">
         <v>41</v>
@@ -9396,10 +9396,10 @@
     </row>
     <row r="86" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O86" t="s">
+        <v>381</v>
+      </c>
+      <c r="P86" t="s">
         <v>382</v>
-      </c>
-      <c r="P86" t="s">
-        <v>383</v>
       </c>
       <c r="Q86" t="s">
         <v>38</v>
@@ -9414,21 +9414,21 @@
         <v>40104</v>
       </c>
       <c r="AB86" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC86" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD86" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O87" t="s">
+        <v>383</v>
+      </c>
+      <c r="P87" t="s">
         <v>384</v>
-      </c>
-      <c r="P87" t="s">
-        <v>385</v>
       </c>
       <c r="Q87" t="s">
         <v>38</v>
@@ -9443,10 +9443,10 @@
         <v>40104</v>
       </c>
       <c r="AB87" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC87" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AD87" t="s">
         <v>41</v>
@@ -9454,10 +9454,10 @@
     </row>
     <row r="88" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O88" t="s">
+        <v>385</v>
+      </c>
+      <c r="P88" t="s">
         <v>386</v>
-      </c>
-      <c r="P88" t="s">
-        <v>387</v>
       </c>
       <c r="Q88" t="s">
         <v>38</v>
@@ -9472,24 +9472,24 @@
         <v>40104</v>
       </c>
       <c r="AB88" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC88" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AD88" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B89" t="s">
         <v>388</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
@@ -9501,43 +9501,43 @@
         <v>30</v>
       </c>
       <c r="G89" t="s">
+        <v>390</v>
+      </c>
+      <c r="H89" t="s">
         <v>391</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K89" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" t="s">
         <v>396</v>
       </c>
-      <c r="O89" t="s">
-        <v>397</v>
-      </c>
       <c r="P89" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q89" t="s">
         <v>49</v>
       </c>
       <c r="Y89" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z89" t="s">
         <v>398</v>
       </c>
-      <c r="Z89" t="s">
-        <v>399</v>
-      </c>
       <c r="AA89">
         <v>40104</v>
       </c>
       <c r="AB89" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC89" t="str">
         <f t="shared" si="1"/>
@@ -9546,13 +9546,13 @@
     </row>
     <row r="90" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>399</v>
+      </c>
+      <c r="B90" t="s">
         <v>400</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
@@ -9564,31 +9564,31 @@
         <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H90" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O90" t="s">
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q90" t="s">
         <v>49</v>
       </c>
       <c r="Y90" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z90" t="s">
         <v>405</v>
       </c>
-      <c r="Z90" t="s">
-        <v>406</v>
-      </c>
       <c r="AA90">
         <v>40104</v>
       </c>
       <c r="AB90" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC90" t="str">
         <f t="shared" si="1"/>
@@ -9597,13 +9597,13 @@
     </row>
     <row r="91" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>406</v>
+      </c>
+      <c r="B91" t="s">
         <v>407</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
@@ -9615,31 +9615,31 @@
         <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H91" t="s">
+        <v>409</v>
+      </c>
+      <c r="O91" t="s">
         <v>410</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>411</v>
-      </c>
-      <c r="P91" t="s">
-        <v>412</v>
       </c>
       <c r="Q91" t="s">
         <v>49</v>
       </c>
       <c r="Y91" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z91" t="s">
         <v>413</v>
       </c>
-      <c r="Z91" t="s">
-        <v>414</v>
-      </c>
       <c r="AA91">
         <v>40104</v>
       </c>
       <c r="AB91" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC91" t="str">
         <f t="shared" si="1"/>
@@ -9648,13 +9648,13 @@
     </row>
     <row r="92" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>414</v>
+      </c>
+      <c r="B92" t="s">
         <v>415</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
@@ -9666,28 +9666,28 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
+        <v>417</v>
+      </c>
+      <c r="H92" t="s">
         <v>418</v>
       </c>
-      <c r="H92" t="s">
+      <c r="K92" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O92" t="s">
         <v>423</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>424</v>
-      </c>
-      <c r="P92" t="s">
-        <v>425</v>
       </c>
       <c r="Q92" t="s">
         <v>38</v>
@@ -9696,18 +9696,18 @@
         <v>40104</v>
       </c>
       <c r="AB92" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC92" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O93" t="s">
+        <v>425</v>
+      </c>
+      <c r="P93" t="s">
         <v>426</v>
-      </c>
-      <c r="P93" t="s">
-        <v>427</v>
       </c>
       <c r="Q93" t="s">
         <v>38</v>
@@ -9716,21 +9716,21 @@
         <v>40104</v>
       </c>
       <c r="AB93" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC93" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>427</v>
+      </c>
+      <c r="B94" t="s">
         <v>428</v>
       </c>
-      <c r="B94" t="s">
-        <v>429</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
@@ -9742,16 +9742,16 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O94" t="s">
+        <v>423</v>
+      </c>
+      <c r="P94" t="s">
         <v>424</v>
-      </c>
-      <c r="P94" t="s">
-        <v>425</v>
       </c>
       <c r="Q94" t="s">
         <v>38</v>
@@ -9760,18 +9760,18 @@
         <v>40104</v>
       </c>
       <c r="AB94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC94" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O95" t="s">
+        <v>425</v>
+      </c>
+      <c r="P95" t="s">
         <v>426</v>
-      </c>
-      <c r="P95" t="s">
-        <v>427</v>
       </c>
       <c r="Q95" t="s">
         <v>38</v>
@@ -9780,21 +9780,21 @@
         <v>40104</v>
       </c>
       <c r="AB95" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC95" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>430</v>
+      </c>
+      <c r="B96" t="s">
         <v>431</v>
       </c>
-      <c r="B96" t="s">
-        <v>432</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
         <v>28</v>
@@ -9806,16 +9806,16 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H96" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O96" t="s">
+        <v>423</v>
+      </c>
+      <c r="P96" t="s">
         <v>424</v>
-      </c>
-      <c r="P96" t="s">
-        <v>425</v>
       </c>
       <c r="Q96" t="s">
         <v>38</v>
@@ -9824,18 +9824,18 @@
         <v>40104</v>
       </c>
       <c r="AB96" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC96" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O97" t="s">
+        <v>425</v>
+      </c>
+      <c r="P97" t="s">
         <v>426</v>
-      </c>
-      <c r="P97" t="s">
-        <v>427</v>
       </c>
       <c r="Q97" t="s">
         <v>38</v>
@@ -9844,21 +9844,21 @@
         <v>40104</v>
       </c>
       <c r="AB97" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC97" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>433</v>
+      </c>
+      <c r="B98" t="s">
         <v>434</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D98" t="s">
         <v>28</v>
@@ -9870,16 +9870,16 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H98" t="s">
+        <v>436</v>
+      </c>
+      <c r="O98" t="s">
         <v>437</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>438</v>
-      </c>
-      <c r="P98" t="s">
-        <v>439</v>
       </c>
       <c r="Q98" t="s">
         <v>38</v>
@@ -9888,18 +9888,18 @@
         <v>40104</v>
       </c>
       <c r="AB98" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC98" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="99" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O99" t="s">
+        <v>439</v>
+      </c>
+      <c r="P99" t="s">
         <v>440</v>
-      </c>
-      <c r="P99" t="s">
-        <v>441</v>
       </c>
       <c r="Q99" t="s">
         <v>38</v>
@@ -9908,21 +9908,21 @@
         <v>40104</v>
       </c>
       <c r="AB99" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC99" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>441</v>
+      </c>
+      <c r="B100" t="s">
         <v>442</v>
       </c>
-      <c r="B100" t="s">
-        <v>443</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
@@ -9934,16 +9934,16 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O100" t="s">
+        <v>437</v>
+      </c>
+      <c r="P100" t="s">
         <v>438</v>
-      </c>
-      <c r="P100" t="s">
-        <v>439</v>
       </c>
       <c r="Q100" t="s">
         <v>38</v>
@@ -9952,18 +9952,18 @@
         <v>40104</v>
       </c>
       <c r="AB100" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC100" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O101" t="s">
+        <v>439</v>
+      </c>
+      <c r="P101" t="s">
         <v>440</v>
-      </c>
-      <c r="P101" t="s">
-        <v>441</v>
       </c>
       <c r="Q101" t="s">
         <v>38</v>
@@ -9972,21 +9972,21 @@
         <v>40104</v>
       </c>
       <c r="AB101" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC101" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>444</v>
+      </c>
+      <c r="B102" t="s">
         <v>445</v>
       </c>
-      <c r="B102" t="s">
-        <v>446</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D102" t="s">
         <v>28</v>
@@ -9998,16 +9998,16 @@
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H102" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O102" t="s">
+        <v>437</v>
+      </c>
+      <c r="P102" t="s">
         <v>438</v>
-      </c>
-      <c r="P102" t="s">
-        <v>439</v>
       </c>
       <c r="Q102" t="s">
         <v>38</v>
@@ -10016,18 +10016,18 @@
         <v>40104</v>
       </c>
       <c r="AB102" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC102" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O103" t="s">
+        <v>439</v>
+      </c>
+      <c r="P103" t="s">
         <v>440</v>
-      </c>
-      <c r="P103" t="s">
-        <v>441</v>
       </c>
       <c r="Q103" t="s">
         <v>38</v>
@@ -10036,21 +10036,21 @@
         <v>40104</v>
       </c>
       <c r="AB103" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC103" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>447</v>
+      </c>
+      <c r="B104" t="s">
         <v>448</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="D104" t="s">
         <v>28</v>
@@ -10062,16 +10062,16 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H104" t="s">
+        <v>450</v>
+      </c>
+      <c r="O104" t="s">
         <v>451</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>452</v>
-      </c>
-      <c r="P104" t="s">
-        <v>453</v>
       </c>
       <c r="Q104" t="s">
         <v>38</v>
@@ -10080,18 +10080,18 @@
         <v>40104</v>
       </c>
       <c r="AB104" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC104" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O105" t="s">
+        <v>453</v>
+      </c>
+      <c r="P105" t="s">
         <v>454</v>
-      </c>
-      <c r="P105" t="s">
-        <v>455</v>
       </c>
       <c r="Q105" t="s">
         <v>38</v>
@@ -10100,21 +10100,21 @@
         <v>40104</v>
       </c>
       <c r="AB105" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC105" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>455</v>
+      </c>
+      <c r="B106" t="s">
         <v>456</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="D106" t="s">
         <v>28</v>
@@ -10126,16 +10126,16 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O106" t="s">
+        <v>451</v>
+      </c>
+      <c r="P106" t="s">
         <v>452</v>
-      </c>
-      <c r="P106" t="s">
-        <v>453</v>
       </c>
       <c r="Q106" t="s">
         <v>38</v>
@@ -10144,18 +10144,18 @@
         <v>40104</v>
       </c>
       <c r="AB106" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC106" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O107" t="s">
+        <v>453</v>
+      </c>
+      <c r="P107" t="s">
         <v>454</v>
-      </c>
-      <c r="P107" t="s">
-        <v>455</v>
       </c>
       <c r="Q107" t="s">
         <v>38</v>
@@ -10164,21 +10164,21 @@
         <v>40104</v>
       </c>
       <c r="AB107" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC107" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>459</v>
+      </c>
+      <c r="B108" t="s">
         <v>460</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
@@ -10190,16 +10190,16 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H108" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O108" t="s">
+        <v>451</v>
+      </c>
+      <c r="P108" t="s">
         <v>452</v>
-      </c>
-      <c r="P108" t="s">
-        <v>453</v>
       </c>
       <c r="Q108" t="s">
         <v>38</v>
@@ -10208,18 +10208,18 @@
         <v>40104</v>
       </c>
       <c r="AB108" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC108" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O109" t="s">
+        <v>453</v>
+      </c>
+      <c r="P109" t="s">
         <v>454</v>
-      </c>
-      <c r="P109" t="s">
-        <v>455</v>
       </c>
       <c r="Q109" t="s">
         <v>38</v>
@@ -10228,21 +10228,21 @@
         <v>40104</v>
       </c>
       <c r="AB109" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC109" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>463</v>
+      </c>
+      <c r="B110" t="s">
         <v>464</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -10254,16 +10254,16 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H110" t="s">
+        <v>466</v>
+      </c>
+      <c r="O110" t="s">
         <v>467</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>468</v>
-      </c>
-      <c r="P110" t="s">
-        <v>469</v>
       </c>
       <c r="Q110" t="s">
         <v>38</v>
@@ -10272,18 +10272,18 @@
         <v>40104</v>
       </c>
       <c r="AB110" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC110" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O111" t="s">
+        <v>469</v>
+      </c>
+      <c r="P111" t="s">
         <v>470</v>
-      </c>
-      <c r="P111" t="s">
-        <v>471</v>
       </c>
       <c r="Q111" t="s">
         <v>38</v>
@@ -10292,21 +10292,21 @@
         <v>40104</v>
       </c>
       <c r="AB111" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC111" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>471</v>
+      </c>
+      <c r="B112" t="s">
         <v>472</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
@@ -10318,16 +10318,16 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O112" t="s">
+        <v>467</v>
+      </c>
+      <c r="P112" t="s">
         <v>468</v>
-      </c>
-      <c r="P112" t="s">
-        <v>469</v>
       </c>
       <c r="Q112" t="s">
         <v>38</v>
@@ -10336,18 +10336,18 @@
         <v>40104</v>
       </c>
       <c r="AB112" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC112" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O113" t="s">
+        <v>469</v>
+      </c>
+      <c r="P113" t="s">
         <v>470</v>
-      </c>
-      <c r="P113" t="s">
-        <v>471</v>
       </c>
       <c r="Q113" t="s">
         <v>38</v>
@@ -10356,21 +10356,21 @@
         <v>40104</v>
       </c>
       <c r="AB113" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC113" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>475</v>
+      </c>
+      <c r="B114" t="s">
         <v>476</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
@@ -10382,16 +10382,16 @@
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H114" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O114" t="s">
+        <v>467</v>
+      </c>
+      <c r="P114" t="s">
         <v>468</v>
-      </c>
-      <c r="P114" t="s">
-        <v>469</v>
       </c>
       <c r="Q114" t="s">
         <v>38</v>
@@ -10400,18 +10400,18 @@
         <v>40104</v>
       </c>
       <c r="AB114" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC114" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O115" t="s">
+        <v>469</v>
+      </c>
+      <c r="P115" t="s">
         <v>470</v>
-      </c>
-      <c r="P115" t="s">
-        <v>471</v>
       </c>
       <c r="Q115" t="s">
         <v>38</v>
@@ -10420,21 +10420,21 @@
         <v>40104</v>
       </c>
       <c r="AB115" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC115" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>479</v>
+      </c>
+      <c r="B116" t="s">
         <v>480</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="D116" t="s">
         <v>28</v>
@@ -10446,22 +10446,22 @@
         <v>30</v>
       </c>
       <c r="G116" t="s">
+        <v>482</v>
+      </c>
+      <c r="H116" t="s">
         <v>483</v>
       </c>
-      <c r="H116" t="s">
+      <c r="M116" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="O116" t="s">
         <v>48</v>
       </c>
       <c r="P116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q116" t="s">
         <v>49</v>
@@ -10470,13 +10470,13 @@
         <v>63</v>
       </c>
       <c r="Z116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AA116">
         <v>40104</v>
       </c>
       <c r="AB116" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC116" t="str">
         <f t="shared" si="1"/>
@@ -10485,13 +10485,13 @@
     </row>
     <row r="117" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>488</v>
+      </c>
+      <c r="B117" t="s">
         <v>489</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
@@ -10503,16 +10503,16 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H117" t="s">
+        <v>491</v>
+      </c>
+      <c r="O117" t="s">
         <v>492</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>493</v>
-      </c>
-      <c r="P117" t="s">
-        <v>494</v>
       </c>
       <c r="Q117" t="s">
         <v>38</v>
@@ -10521,7 +10521,7 @@
         <v>40104</v>
       </c>
       <c r="AB117" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC117" t="str">
         <f t="shared" si="1"/>
@@ -10530,13 +10530,13 @@
     </row>
     <row r="118" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>494</v>
+      </c>
+      <c r="B118" t="s">
         <v>495</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
@@ -10548,16 +10548,16 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H118" t="s">
+        <v>497</v>
+      </c>
+      <c r="O118" t="s">
         <v>498</v>
       </c>
-      <c r="O118" t="s">
-        <v>499</v>
-      </c>
       <c r="P118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q118" t="s">
         <v>38</v>
@@ -10566,18 +10566,18 @@
         <v>40104</v>
       </c>
       <c r="AB118" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC118" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O119" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q119" t="s">
         <v>38</v>
@@ -10586,21 +10586,21 @@
         <v>40104</v>
       </c>
       <c r="AB119" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC119" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>500</v>
+      </c>
+      <c r="B120" t="s">
         <v>501</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
@@ -10612,16 +10612,16 @@
         <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H120" t="s">
+        <v>503</v>
+      </c>
+      <c r="O120" t="s">
         <v>504</v>
       </c>
-      <c r="O120" t="s">
-        <v>505</v>
-      </c>
       <c r="P120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q120" t="s">
         <v>38</v>
@@ -10630,18 +10630,18 @@
         <v>40104</v>
       </c>
       <c r="AB120" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC120" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O121" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q121" t="s">
         <v>38</v>
@@ -10650,21 +10650,21 @@
         <v>40104</v>
       </c>
       <c r="AB121" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC121" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>506</v>
+      </c>
+      <c r="B122" t="s">
         <v>507</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D122" t="s">
         <v>28</v>
@@ -10676,16 +10676,16 @@
         <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H122" t="s">
+        <v>509</v>
+      </c>
+      <c r="O122" t="s">
         <v>510</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" t="s">
         <v>511</v>
-      </c>
-      <c r="P122" t="s">
-        <v>512</v>
       </c>
       <c r="Q122" t="s">
         <v>38</v>
@@ -10694,18 +10694,18 @@
         <v>40104</v>
       </c>
       <c r="AB122" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC122" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O123" t="s">
+        <v>512</v>
+      </c>
+      <c r="P123" t="s">
         <v>513</v>
-      </c>
-      <c r="P123" t="s">
-        <v>514</v>
       </c>
       <c r="Q123" t="s">
         <v>38</v>
@@ -10714,21 +10714,21 @@
         <v>40104</v>
       </c>
       <c r="AB123" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC123" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>514</v>
+      </c>
+      <c r="B124" t="s">
         <v>515</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="D124" t="s">
         <v>28</v>
@@ -10740,22 +10740,22 @@
         <v>30</v>
       </c>
       <c r="G124" t="s">
+        <v>517</v>
+      </c>
+      <c r="H124" t="s">
         <v>518</v>
       </c>
-      <c r="H124" t="s">
+      <c r="M124" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M124" s="1" t="s">
+      <c r="N124" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="O124" t="s">
         <v>48</v>
       </c>
       <c r="P124" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q124" t="s">
         <v>49</v>
@@ -10764,13 +10764,13 @@
         <v>63</v>
       </c>
       <c r="Z124" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA124">
         <v>40104</v>
       </c>
       <c r="AB124" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC124" t="str">
         <f t="shared" si="1"/>
@@ -10779,13 +10779,13 @@
     </row>
     <row r="125" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>523</v>
+      </c>
+      <c r="B125" t="s">
         <v>524</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="D125" t="s">
         <v>28</v>
@@ -10797,42 +10797,42 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H125" t="s">
+        <v>526</v>
+      </c>
+      <c r="O125" t="s">
         <v>527</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>528</v>
-      </c>
-      <c r="P125" t="s">
-        <v>529</v>
       </c>
       <c r="Q125" t="s">
         <v>49</v>
       </c>
       <c r="Y125" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z125" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA125">
         <v>40104</v>
       </c>
       <c r="AB125" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC125" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O126" t="s">
+        <v>530</v>
+      </c>
+      <c r="P126" t="s">
         <v>531</v>
-      </c>
-      <c r="P126" t="s">
-        <v>532</v>
       </c>
       <c r="Q126" t="s">
         <v>38</v>
@@ -10841,21 +10841,21 @@
         <v>40104</v>
       </c>
       <c r="AB126" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC126" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>532</v>
+      </c>
+      <c r="B127" t="s">
         <v>533</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
@@ -10867,48 +10867,48 @@
         <v>30</v>
       </c>
       <c r="G127" t="s">
+        <v>535</v>
+      </c>
+      <c r="H127" t="s">
         <v>536</v>
       </c>
-      <c r="H127" t="s">
+      <c r="M127" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="N127" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="N127" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="O127" t="s">
+        <v>527</v>
+      </c>
+      <c r="P127" t="s">
         <v>528</v>
-      </c>
-      <c r="P127" t="s">
-        <v>529</v>
       </c>
       <c r="Q127" t="s">
         <v>49</v>
       </c>
       <c r="Y127" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z127" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA127">
         <v>40104</v>
       </c>
       <c r="AB127" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC127" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="128" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O128" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P128" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q128" t="s">
         <v>49</v>
@@ -10917,27 +10917,27 @@
         <v>63</v>
       </c>
       <c r="Z128" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA128">
         <v>40104</v>
       </c>
       <c r="AB128" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>540</v>
+      </c>
+      <c r="B129" t="s">
         <v>541</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
@@ -10949,16 +10949,16 @@
         <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H129" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O129" t="s">
         <v>98</v>
       </c>
       <c r="P129" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q129" t="s">
         <v>38</v>
@@ -10967,7 +10967,7 @@
         <v>40104</v>
       </c>
       <c r="AB129" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC129" t="str">
         <f t="shared" si="1"/>
@@ -10976,13 +10976,13 @@
     </row>
     <row r="130" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>545</v>
+      </c>
+      <c r="B130" t="s">
         <v>546</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
@@ -10994,16 +10994,16 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
+        <v>548</v>
+      </c>
+      <c r="H130" t="s">
+        <v>548</v>
+      </c>
+      <c r="M130" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H130" t="s">
-        <v>549</v>
-      </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="O130" t="s">
         <v>48</v>
@@ -11018,13 +11018,13 @@
         <v>63</v>
       </c>
       <c r="Z130" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA130">
         <v>40104</v>
       </c>
       <c r="AB130" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC130" t="str">
         <f t="shared" ref="AC130:AC174" si="2">H130</f>
@@ -11033,13 +11033,13 @@
     </row>
     <row r="131" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>552</v>
+      </c>
+      <c r="B131" t="s">
         <v>553</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="D131" t="s">
         <v>28</v>
@@ -11051,16 +11051,16 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H131" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O131" t="s">
         <v>48</v>
       </c>
       <c r="P131" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q131" t="s">
         <v>49</v>
@@ -11075,7 +11075,7 @@
         <v>40104</v>
       </c>
       <c r="AB131" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC131" t="str">
         <f t="shared" si="2"/>
@@ -11084,13 +11084,13 @@
     </row>
     <row r="132" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>557</v>
+      </c>
+      <c r="B132" t="s">
         <v>558</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
@@ -11102,16 +11102,16 @@
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H132" t="s">
+        <v>560</v>
+      </c>
+      <c r="O132" t="s">
+        <v>560</v>
+      </c>
+      <c r="P132" t="s">
         <v>561</v>
-      </c>
-      <c r="O132" t="s">
-        <v>561</v>
-      </c>
-      <c r="P132" t="s">
-        <v>562</v>
       </c>
       <c r="Q132" t="s">
         <v>38</v>
@@ -11120,7 +11120,7 @@
         <v>40104</v>
       </c>
       <c r="AB132" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC132" t="str">
         <f t="shared" si="2"/>
@@ -11129,13 +11129,13 @@
     </row>
     <row r="133" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>562</v>
+      </c>
+      <c r="B133" t="s">
         <v>563</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
@@ -11147,16 +11147,16 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H133" t="s">
+        <v>565</v>
+      </c>
+      <c r="O133" t="s">
         <v>566</v>
       </c>
-      <c r="O133" t="s">
+      <c r="P133" t="s">
         <v>567</v>
-      </c>
-      <c r="P133" t="s">
-        <v>568</v>
       </c>
       <c r="Q133" t="s">
         <v>38</v>
@@ -11165,7 +11165,7 @@
         <v>40104</v>
       </c>
       <c r="AB133" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC133" t="str">
         <f t="shared" si="2"/>
@@ -11174,13 +11174,13 @@
     </row>
     <row r="134" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>568</v>
+      </c>
+      <c r="B134" t="s">
         <v>569</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="D134" t="s">
         <v>28</v>
@@ -11192,16 +11192,16 @@
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H134" t="s">
+        <v>571</v>
+      </c>
+      <c r="O134" t="s">
         <v>572</v>
       </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
         <v>573</v>
-      </c>
-      <c r="P134" t="s">
-        <v>574</v>
       </c>
       <c r="Q134" t="s">
         <v>38</v>
@@ -11210,18 +11210,18 @@
         <v>40104</v>
       </c>
       <c r="AB134" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC134" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O135" t="s">
+        <v>574</v>
+      </c>
+      <c r="P135" t="s">
         <v>575</v>
-      </c>
-      <c r="P135" t="s">
-        <v>576</v>
       </c>
       <c r="Q135" t="s">
         <v>38</v>
@@ -11230,18 +11230,18 @@
         <v>40104</v>
       </c>
       <c r="AB135" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC135" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="136" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O136" t="s">
+        <v>576</v>
+      </c>
+      <c r="P136" t="s">
         <v>577</v>
-      </c>
-      <c r="P136" t="s">
-        <v>578</v>
       </c>
       <c r="Q136" t="s">
         <v>38</v>
@@ -11250,18 +11250,18 @@
         <v>40104</v>
       </c>
       <c r="AB136" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC136" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O137" t="s">
+        <v>578</v>
+      </c>
+      <c r="P137" t="s">
         <v>579</v>
-      </c>
-      <c r="P137" t="s">
-        <v>580</v>
       </c>
       <c r="Q137" t="s">
         <v>38</v>
@@ -11270,21 +11270,21 @@
         <v>40104</v>
       </c>
       <c r="AB137" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC137" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>580</v>
+      </c>
+      <c r="B138" t="s">
         <v>581</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
@@ -11296,16 +11296,16 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H138" t="s">
+        <v>583</v>
+      </c>
+      <c r="O138" t="s">
+        <v>583</v>
+      </c>
+      <c r="P138" t="s">
         <v>584</v>
-      </c>
-      <c r="O138" t="s">
-        <v>584</v>
-      </c>
-      <c r="P138" t="s">
-        <v>585</v>
       </c>
       <c r="Q138" t="s">
         <v>38</v>
@@ -11314,7 +11314,7 @@
         <v>40104</v>
       </c>
       <c r="AB138" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC138" t="str">
         <f t="shared" si="2"/>
@@ -11323,13 +11323,13 @@
     </row>
     <row r="139" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>585</v>
+      </c>
+      <c r="B139" t="s">
         <v>586</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
@@ -11341,16 +11341,16 @@
         <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H139" t="s">
+        <v>588</v>
+      </c>
+      <c r="O139" t="s">
+        <v>588</v>
+      </c>
+      <c r="P139" t="s">
         <v>589</v>
-      </c>
-      <c r="O139" t="s">
-        <v>589</v>
-      </c>
-      <c r="P139" t="s">
-        <v>590</v>
       </c>
       <c r="Q139" t="s">
         <v>38</v>
@@ -11359,7 +11359,7 @@
         <v>40104</v>
       </c>
       <c r="AB139" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC139" t="str">
         <f t="shared" si="2"/>
@@ -11368,13 +11368,13 @@
     </row>
     <row r="140" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>590</v>
+      </c>
+      <c r="B140" t="s">
         <v>591</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="D140" t="s">
         <v>28</v>
@@ -11386,16 +11386,16 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H140" t="s">
+        <v>593</v>
+      </c>
+      <c r="O140" t="s">
+        <v>593</v>
+      </c>
+      <c r="P140" t="s">
         <v>594</v>
-      </c>
-      <c r="O140" t="s">
-        <v>594</v>
-      </c>
-      <c r="P140" t="s">
-        <v>595</v>
       </c>
       <c r="Q140" t="s">
         <v>38</v>
@@ -11404,7 +11404,7 @@
         <v>40104</v>
       </c>
       <c r="AB140" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC140" t="str">
         <f t="shared" si="2"/>
@@ -11413,13 +11413,13 @@
     </row>
     <row r="141" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>595</v>
+      </c>
+      <c r="B141" t="s">
         <v>596</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="D141" t="s">
         <v>28</v>
@@ -11431,16 +11431,16 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H141" t="s">
+        <v>598</v>
+      </c>
+      <c r="O141" t="s">
+        <v>598</v>
+      </c>
+      <c r="P141" t="s">
         <v>599</v>
-      </c>
-      <c r="O141" t="s">
-        <v>599</v>
-      </c>
-      <c r="P141" t="s">
-        <v>600</v>
       </c>
       <c r="Q141" t="s">
         <v>38</v>
@@ -11449,7 +11449,7 @@
         <v>40104</v>
       </c>
       <c r="AB141" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC141" t="str">
         <f t="shared" si="2"/>
@@ -11458,13 +11458,13 @@
     </row>
     <row r="142" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>600</v>
+      </c>
+      <c r="B142" t="s">
         <v>601</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
@@ -11476,16 +11476,16 @@
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H142" t="s">
+        <v>603</v>
+      </c>
+      <c r="O142" t="s">
+        <v>566</v>
+      </c>
+      <c r="P142" t="s">
         <v>604</v>
-      </c>
-      <c r="O142" t="s">
-        <v>567</v>
-      </c>
-      <c r="P142" t="s">
-        <v>605</v>
       </c>
       <c r="Q142" t="s">
         <v>38</v>
@@ -11494,21 +11494,21 @@
         <v>40104</v>
       </c>
       <c r="AB142" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC142" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>605</v>
+      </c>
+      <c r="B143" t="s">
         <v>606</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="D143" t="s">
         <v>28</v>
@@ -11520,16 +11520,16 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
+        <v>608</v>
+      </c>
+      <c r="H143" t="s">
         <v>609</v>
       </c>
-      <c r="H143" t="s">
+      <c r="M143" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="M143" s="1" t="s">
+      <c r="N143" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="O143" t="s">
         <v>48</v>
@@ -11544,13 +11544,13 @@
         <v>63</v>
       </c>
       <c r="Z143" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA143">
         <v>40104</v>
       </c>
       <c r="AB143" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC143" t="str">
         <f t="shared" si="2"/>
@@ -11559,13 +11559,13 @@
     </row>
     <row r="144" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>613</v>
+      </c>
+      <c r="B144" t="s">
         <v>614</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
@@ -11577,16 +11577,16 @@
         <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H144" t="s">
+        <v>616</v>
+      </c>
+      <c r="O144" t="s">
         <v>617</v>
       </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
         <v>618</v>
-      </c>
-      <c r="P144" t="s">
-        <v>619</v>
       </c>
       <c r="Q144" t="s">
         <v>38</v>
@@ -11595,18 +11595,18 @@
         <v>40104</v>
       </c>
       <c r="AB144" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC144" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="145" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O145" t="s">
+        <v>619</v>
+      </c>
+      <c r="P145" t="s">
         <v>620</v>
-      </c>
-      <c r="P145" t="s">
-        <v>621</v>
       </c>
       <c r="Q145" t="s">
         <v>38</v>
@@ -11615,18 +11615,18 @@
         <v>40104</v>
       </c>
       <c r="AB145" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC145" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O146" t="s">
+        <v>621</v>
+      </c>
+      <c r="P146" t="s">
         <v>622</v>
-      </c>
-      <c r="P146" t="s">
-        <v>623</v>
       </c>
       <c r="Q146" t="s">
         <v>38</v>
@@ -11635,21 +11635,21 @@
         <v>40104</v>
       </c>
       <c r="AB146" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC146" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>623</v>
+      </c>
+      <c r="B147" t="s">
         <v>624</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="D147" t="s">
         <v>28</v>
@@ -11661,16 +11661,16 @@
         <v>30</v>
       </c>
       <c r="G147" t="s">
+        <v>626</v>
+      </c>
+      <c r="H147" t="s">
+        <v>626</v>
+      </c>
+      <c r="M147" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H147" t="s">
-        <v>627</v>
-      </c>
-      <c r="M147" s="1" t="s">
+      <c r="N147" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="N147" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="O147" t="s">
         <v>48</v>
@@ -11685,13 +11685,13 @@
         <v>63</v>
       </c>
       <c r="Z147" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA147">
         <v>40104</v>
       </c>
       <c r="AB147" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC147" t="str">
         <f t="shared" si="2"/>
@@ -11700,13 +11700,13 @@
     </row>
     <row r="148" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>630</v>
+      </c>
+      <c r="B148" t="s">
         <v>631</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
@@ -11718,16 +11718,16 @@
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H148" t="s">
+        <v>633</v>
+      </c>
+      <c r="O148" t="s">
         <v>634</v>
       </c>
-      <c r="O148" t="s">
-        <v>635</v>
-      </c>
       <c r="P148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q148" t="s">
         <v>38</v>
@@ -11736,18 +11736,18 @@
         <v>40104</v>
       </c>
       <c r="AB148" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC148" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O149" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P149" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q149" t="s">
         <v>38</v>
@@ -11756,21 +11756,21 @@
         <v>40104</v>
       </c>
       <c r="AB149" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC149" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>636</v>
+      </c>
+      <c r="B150" t="s">
         <v>637</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
@@ -11782,16 +11782,16 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H150" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O150" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P150" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q150" t="s">
         <v>38</v>
@@ -11800,7 +11800,7 @@
         <v>40104</v>
       </c>
       <c r="AB150" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC150" t="str">
         <f t="shared" si="2"/>
@@ -11809,13 +11809,13 @@
     </row>
     <row r="151" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>640</v>
+      </c>
+      <c r="B151" t="s">
+        <v>601</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B151" t="s">
-        <v>602</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
@@ -11827,16 +11827,16 @@
         <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H151" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P151" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q151" t="s">
         <v>38</v>
@@ -11845,21 +11845,21 @@
         <v>40104</v>
       </c>
       <c r="AB151" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC151" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>642</v>
+      </c>
+      <c r="B152" t="s">
         <v>643</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="D152" t="s">
         <v>28</v>
@@ -11871,16 +11871,16 @@
         <v>30</v>
       </c>
       <c r="G152" t="s">
+        <v>645</v>
+      </c>
+      <c r="H152" t="s">
         <v>646</v>
       </c>
-      <c r="H152" t="s">
+      <c r="M152" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="M152" s="1" t="s">
+      <c r="N152" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="O152" t="s">
         <v>48</v>
@@ -11901,7 +11901,7 @@
         <v>40104</v>
       </c>
       <c r="AB152" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC152" t="str">
         <f t="shared" si="2"/>
@@ -11910,13 +11910,13 @@
     </row>
     <row r="153" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>649</v>
+      </c>
+      <c r="B153" t="s">
+        <v>601</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="B153" t="s">
-        <v>602</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
@@ -11928,16 +11928,16 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H153" t="s">
+        <v>603</v>
+      </c>
+      <c r="O153" t="s">
+        <v>566</v>
+      </c>
+      <c r="P153" t="s">
         <v>604</v>
-      </c>
-      <c r="O153" t="s">
-        <v>567</v>
-      </c>
-      <c r="P153" t="s">
-        <v>605</v>
       </c>
       <c r="Q153" t="s">
         <v>38</v>
@@ -11946,21 +11946,21 @@
         <v>40104</v>
       </c>
       <c r="AB153" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC153" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="154" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>651</v>
+      </c>
+      <c r="B154" t="s">
         <v>652</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
@@ -11972,28 +11972,28 @@
         <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H154" t="s">
+        <v>654</v>
+      </c>
+      <c r="O154" t="s">
         <v>655</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>656</v>
-      </c>
-      <c r="P154" t="s">
-        <v>657</v>
       </c>
       <c r="Q154" t="s">
         <v>38</v>
       </c>
       <c r="T154" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA154">
         <v>40104</v>
       </c>
       <c r="AB154" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC154" t="str">
         <f t="shared" si="2"/>
@@ -12002,13 +12002,13 @@
     </row>
     <row r="155" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>657</v>
+      </c>
+      <c r="B155" t="s">
         <v>658</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
@@ -12020,16 +12020,16 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H155" t="s">
+        <v>660</v>
+      </c>
+      <c r="O155" t="s">
+        <v>655</v>
+      </c>
+      <c r="P155" t="s">
         <v>661</v>
-      </c>
-      <c r="O155" t="s">
-        <v>656</v>
-      </c>
-      <c r="P155" t="s">
-        <v>662</v>
       </c>
       <c r="Q155" t="s">
         <v>38</v>
@@ -12038,7 +12038,7 @@
         <v>40104</v>
       </c>
       <c r="AB155" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC155" t="str">
         <f t="shared" si="2"/>
@@ -12047,13 +12047,13 @@
     </row>
     <row r="156" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>662</v>
+      </c>
+      <c r="B156" t="s">
         <v>663</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="D156" t="s">
         <v>28</v>
@@ -12065,16 +12065,16 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H156" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O156" t="s">
+        <v>655</v>
+      </c>
+      <c r="P156" t="s">
         <v>656</v>
-      </c>
-      <c r="P156" t="s">
-        <v>657</v>
       </c>
       <c r="Q156" t="s">
         <v>38</v>
@@ -12083,7 +12083,7 @@
         <v>40104</v>
       </c>
       <c r="AB156" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC156" t="str">
         <f t="shared" si="2"/>
@@ -12092,13 +12092,13 @@
     </row>
     <row r="157" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>666</v>
+      </c>
+      <c r="B157" t="s">
         <v>667</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
@@ -12110,16 +12110,16 @@
         <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H157" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O157" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P157" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q157" t="s">
         <v>38</v>
@@ -12128,7 +12128,7 @@
         <v>40104</v>
       </c>
       <c r="AB157" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC157" t="str">
         <f t="shared" si="2"/>
@@ -12137,13 +12137,13 @@
     </row>
     <row r="158" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>670</v>
+      </c>
+      <c r="B158" t="s">
         <v>671</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
@@ -12155,22 +12155,22 @@
         <v>30</v>
       </c>
       <c r="G158" t="s">
+        <v>673</v>
+      </c>
+      <c r="H158" t="s">
         <v>674</v>
       </c>
-      <c r="H158" t="s">
+      <c r="K158" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="L158" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="M158" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="N158" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="N158" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="O158" t="s">
         <v>48</v>
@@ -12191,7 +12191,7 @@
         <v>40104</v>
       </c>
       <c r="AB158" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC158" t="str">
         <f t="shared" si="2"/>
@@ -12200,13 +12200,13 @@
     </row>
     <row r="159" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>679</v>
+      </c>
+      <c r="B159" t="s">
         <v>680</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
@@ -12218,34 +12218,34 @@
         <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H159" t="s">
+        <v>682</v>
+      </c>
+      <c r="O159" t="s">
         <v>683</v>
       </c>
-      <c r="O159" t="s">
+      <c r="P159" t="s">
         <v>684</v>
-      </c>
-      <c r="P159" t="s">
-        <v>685</v>
       </c>
       <c r="Q159" t="s">
         <v>49</v>
       </c>
       <c r="T159" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Y159" s="2">
         <v>208220230240277</v>
       </c>
       <c r="Z159" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AA159">
         <v>40104</v>
       </c>
       <c r="AB159" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC159" t="str">
         <f t="shared" si="2"/>
@@ -12254,13 +12254,13 @@
     </row>
     <row r="160" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>686</v>
+      </c>
+      <c r="B160" t="s">
         <v>687</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
@@ -12272,43 +12272,43 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
+        <v>689</v>
+      </c>
+      <c r="H160" t="s">
         <v>690</v>
       </c>
-      <c r="H160" t="s">
+      <c r="K160" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="K160" s="1" t="s">
+      <c r="L160" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="L160" s="1" t="s">
+      <c r="M160" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="N160" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="N160" s="1" t="s">
+      <c r="O160" t="s">
         <v>695</v>
       </c>
-      <c r="O160" t="s">
+      <c r="P160" t="s">
         <v>696</v>
-      </c>
-      <c r="P160" t="s">
-        <v>697</v>
       </c>
       <c r="Q160" t="s">
         <v>49</v>
       </c>
       <c r="Y160" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z160" t="s">
         <v>698</v>
       </c>
-      <c r="Z160" t="s">
-        <v>699</v>
-      </c>
       <c r="AA160">
         <v>40104</v>
       </c>
       <c r="AB160" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC160" t="str">
         <f t="shared" si="2"/>
@@ -12317,13 +12317,13 @@
     </row>
     <row r="161" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>699</v>
+      </c>
+      <c r="B161" t="s">
         <v>700</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
@@ -12335,16 +12335,16 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H161" t="s">
+        <v>702</v>
+      </c>
+      <c r="O161" t="s">
         <v>703</v>
       </c>
-      <c r="O161" t="s">
+      <c r="P161" t="s">
         <v>704</v>
-      </c>
-      <c r="P161" t="s">
-        <v>705</v>
       </c>
       <c r="Q161" t="s">
         <v>38</v>
@@ -12353,7 +12353,7 @@
         <v>40104</v>
       </c>
       <c r="AB161" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC161" t="str">
         <f t="shared" si="2"/>
@@ -12362,13 +12362,13 @@
     </row>
     <row r="162" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>705</v>
+      </c>
+      <c r="B162" t="s">
         <v>706</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -12380,16 +12380,16 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H162" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O162" t="s">
         <v>98</v>
       </c>
       <c r="P162" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q162" t="s">
         <v>38</v>
@@ -12404,7 +12404,7 @@
         <v>40104</v>
       </c>
       <c r="AB162" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC162" t="str">
         <f t="shared" si="2"/>
@@ -12413,13 +12413,13 @@
     </row>
     <row r="163" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>710</v>
+      </c>
+      <c r="B163" t="s">
         <v>711</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
@@ -12431,16 +12431,16 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H163" t="s">
+        <v>713</v>
+      </c>
+      <c r="O163" t="s">
+        <v>566</v>
+      </c>
+      <c r="P163" t="s">
         <v>714</v>
-      </c>
-      <c r="O163" t="s">
-        <v>567</v>
-      </c>
-      <c r="P163" t="s">
-        <v>715</v>
       </c>
       <c r="Q163" t="s">
         <v>38</v>
@@ -12449,7 +12449,7 @@
         <v>40104</v>
       </c>
       <c r="AB163" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC163" t="str">
         <f t="shared" si="2"/>
@@ -12458,13 +12458,13 @@
     </row>
     <row r="164" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>715</v>
+      </c>
+      <c r="B164" t="s">
         <v>716</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
@@ -12476,25 +12476,25 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H164" t="s">
+        <v>718</v>
+      </c>
+      <c r="O164" t="s">
         <v>719</v>
       </c>
-      <c r="O164" t="s">
-        <v>720</v>
-      </c>
       <c r="P164" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q164" t="s">
         <v>38</v>
       </c>
       <c r="R164" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="T164" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U164">
         <v>0</v>
@@ -12503,33 +12503,33 @@
         <v>90</v>
       </c>
       <c r="W164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA164">
         <v>40104</v>
       </c>
       <c r="AB164" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC164" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P165" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q165" t="s">
         <v>38</v>
       </c>
       <c r="R165" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T165" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U165">
         <v>5</v>
@@ -12538,27 +12538,27 @@
         <v>100</v>
       </c>
       <c r="X165" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA165">
         <v>40104</v>
       </c>
       <c r="AB165" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC165" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>722</v>
+      </c>
+      <c r="B166" t="s">
         <v>723</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
@@ -12570,45 +12570,45 @@
         <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H166" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O166" t="s">
         <v>48</v>
       </c>
       <c r="P166" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q166" t="s">
         <v>49</v>
       </c>
       <c r="Y166" t="s">
+        <v>727</v>
+      </c>
+      <c r="Z166" t="s">
         <v>728</v>
-      </c>
-      <c r="Z166" t="s">
-        <v>729</v>
       </c>
       <c r="AA166">
         <v>40101</v>
       </c>
       <c r="AB166" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC166" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>729</v>
+      </c>
+      <c r="B167" t="s">
         <v>730</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
@@ -12620,10 +12620,10 @@
         <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H167" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O167" t="s">
         <v>48</v>
@@ -12638,13 +12638,13 @@
         <v>63</v>
       </c>
       <c r="Z167" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AA167">
         <v>40104</v>
       </c>
       <c r="AB167" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC167" t="str">
         <f t="shared" si="2"/>
@@ -12653,13 +12653,13 @@
     </row>
     <row r="168" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>734</v>
+      </c>
+      <c r="B168" t="s">
         <v>735</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
@@ -12671,10 +12671,10 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H168" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O168" t="s">
         <v>48</v>
@@ -12695,7 +12695,7 @@
         <v>40104</v>
       </c>
       <c r="AB168" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC168" t="str">
         <f t="shared" si="2"/>
@@ -12704,13 +12704,13 @@
     </row>
     <row r="169" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>738</v>
+      </c>
+      <c r="B169" t="s">
         <v>739</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
@@ -12722,28 +12722,28 @@
         <v>30</v>
       </c>
       <c r="G169" t="s">
+        <v>741</v>
+      </c>
+      <c r="H169" t="s">
+        <v>741</v>
+      </c>
+      <c r="K169" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="H169" t="s">
-        <v>742</v>
-      </c>
-      <c r="K169" s="1" t="s">
+      <c r="L169" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="L169" s="1" t="s">
+      <c r="M169" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="N169" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="O169" t="s">
         <v>48</v>
       </c>
       <c r="P169" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q169" t="s">
         <v>49</v>
@@ -12758,7 +12758,7 @@
         <v>40104</v>
       </c>
       <c r="AB169" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC169" t="str">
         <f t="shared" si="2"/>
@@ -12767,13 +12767,13 @@
     </row>
     <row r="170" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>747</v>
+      </c>
+      <c r="B170" t="s">
         <v>748</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
@@ -12785,25 +12785,25 @@
         <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H170" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O170" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P170" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q170" t="s">
         <v>38</v>
       </c>
       <c r="R170" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T170" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U170">
         <v>0</v>
@@ -12812,33 +12812,33 @@
         <v>100</v>
       </c>
       <c r="W170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA170">
         <v>40104</v>
       </c>
       <c r="AB170" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC170" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P171" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q171" t="s">
         <v>38</v>
       </c>
       <c r="R171" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="T171" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U171">
         <v>0</v>
@@ -12847,27 +12847,27 @@
         <v>100</v>
       </c>
       <c r="X171" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA171">
         <v>40104</v>
       </c>
       <c r="AB171" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC171" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>753</v>
+      </c>
+      <c r="B172" t="s">
         <v>754</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
@@ -12879,22 +12879,22 @@
         <v>30</v>
       </c>
       <c r="G172" t="s">
+        <v>756</v>
+      </c>
+      <c r="H172" t="s">
         <v>757</v>
       </c>
-      <c r="H172" t="s">
+      <c r="K172" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="K172" s="1" t="s">
+      <c r="L172" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="M172" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="O172" t="s">
         <v>48</v>
@@ -12906,13 +12906,13 @@
         <v>63</v>
       </c>
       <c r="Z172" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AA172">
         <v>40104</v>
       </c>
       <c r="AB172" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC172" t="str">
         <f t="shared" si="2"/>
@@ -12921,13 +12921,13 @@
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>763</v>
+      </c>
+      <c r="B173" t="s">
         <v>764</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
@@ -12939,16 +12939,16 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H173" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O173" t="s">
         <v>48</v>
       </c>
       <c r="P173" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q173" t="s">
         <v>49</v>
@@ -12957,13 +12957,13 @@
         <v>63</v>
       </c>
       <c r="Z173" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA173">
         <v>40104</v>
       </c>
       <c r="AB173" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC173" t="str">
         <f t="shared" si="2"/>
@@ -12972,13 +12972,13 @@
     </row>
     <row r="174" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>769</v>
+      </c>
+      <c r="B174" t="s">
         <v>770</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
@@ -12990,16 +12990,16 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H174" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O174" t="s">
         <v>98</v>
       </c>
       <c r="P174" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q174" t="s">
         <v>38</v>
@@ -13014,7 +13014,7 @@
         <v>40104</v>
       </c>
       <c r="AB174" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC174" t="str">
         <f t="shared" si="2"/>
@@ -13023,13 +13023,13 @@
     </row>
     <row r="175" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>774</v>
+      </c>
+      <c r="B175" t="s">
         <v>775</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
@@ -13041,16 +13041,16 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H175" t="s">
+        <v>777</v>
+      </c>
+      <c r="O175" t="s">
         <v>778</v>
       </c>
-      <c r="O175" t="s">
+      <c r="P175" t="s">
         <v>779</v>
-      </c>
-      <c r="P175" t="s">
-        <v>780</v>
       </c>
       <c r="Q175" t="s">
         <v>38</v>
@@ -13062,24 +13062,24 @@
         <v>100</v>
       </c>
       <c r="W175" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA175">
         <v>40104</v>
       </c>
       <c r="AB175" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC175" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O176" t="s">
+        <v>780</v>
+      </c>
+      <c r="P176" t="s">
         <v>781</v>
-      </c>
-      <c r="P176" t="s">
-        <v>782</v>
       </c>
       <c r="Q176" t="s">
         <v>38</v>
@@ -13091,16 +13091,16 @@
         <v>100</v>
       </c>
       <c r="X176" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA176">
         <v>40104</v>
       </c>
       <c r="AB176" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AC176" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
